--- a/data/cls2.xlsx
+++ b/data/cls2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10908"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Apple/Documents/GitHub/LibraryMigration/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17839\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FC9E5F8-2CAD-3C49-ABD1-7BC704779B29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F0B7DD6-949E-4510-8246-3742FE7FDFF2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2959" uniqueCount="1651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2988" uniqueCount="1656">
   <si>
     <t>category</t>
   </si>
@@ -5090,6 +5090,25 @@
   </si>
   <si>
     <t>Annotation Processing Tools</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Core Utilities</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Other</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Code Generation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5097,7 +5116,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -5520,20 +5539,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E905"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="98" workbookViewId="0">
-      <selection activeCell="B843" sqref="B843"/>
+    <sheetView tabSelected="1" topLeftCell="A452" zoomScale="98" workbookViewId="0">
+      <selection activeCell="B475" sqref="B475"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="18" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="83.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="24.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="24.77734375" style="3" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="40.1640625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="62.5" style="2" customWidth="1"/>
+    <col min="4" max="4" width="40.109375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="62.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
@@ -5550,7 +5569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>1524</v>
       </c>
@@ -5567,7 +5586,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
         <v>1528</v>
       </c>
@@ -5584,7 +5603,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -5601,7 +5620,7 @@
         <v>958</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
@@ -5618,7 +5637,7 @@
         <v>952</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +5654,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
@@ -5649,7 +5668,7 @@
         <v>954</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
@@ -5663,7 +5682,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
         <v>7</v>
       </c>
@@ -5677,7 +5696,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
         <v>8</v>
       </c>
@@ -5691,7 +5710,7 @@
         <v>956</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
@@ -5708,7 +5727,7 @@
         <v>960</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
@@ -5722,7 +5741,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
@@ -5736,7 +5755,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -5750,7 +5769,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
         <v>14</v>
       </c>
@@ -5767,7 +5786,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
         <v>15</v>
       </c>
@@ -5784,7 +5803,7 @@
         <v>963</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>16</v>
       </c>
@@ -5798,7 +5817,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>17</v>
       </c>
@@ -5815,7 +5834,7 @@
         <v>965</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
         <v>1624</v>
       </c>
@@ -5832,7 +5851,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
         <v>58</v>
       </c>
@@ -5846,7 +5865,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
         <v>59</v>
       </c>
@@ -5860,7 +5879,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
         <v>60</v>
       </c>
@@ -5877,7 +5896,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
         <v>71</v>
       </c>
@@ -5891,7 +5910,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
         <v>72</v>
       </c>
@@ -5905,7 +5924,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
         <v>73</v>
       </c>
@@ -5919,7 +5938,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
         <v>52</v>
       </c>
@@ -5936,7 +5955,7 @@
         <v>997</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -5953,7 +5972,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
         <v>54</v>
       </c>
@@ -5970,7 +5989,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
         <v>55</v>
       </c>
@@ -5987,7 +6006,7 @@
         <v>1001</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
         <v>56</v>
       </c>
@@ -6004,7 +6023,7 @@
         <v>998</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
@@ -6021,7 +6040,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -6038,7 +6057,7 @@
         <v>994</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
@@ -6052,7 +6071,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
@@ -6069,7 +6088,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>61</v>
       </c>
@@ -6086,7 +6105,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>68</v>
       </c>
@@ -6103,7 +6122,7 @@
         <v>1011</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>63</v>
       </c>
@@ -6120,7 +6139,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>64</v>
       </c>
@@ -6134,7 +6153,7 @@
         <v>1008</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>43</v>
       </c>
@@ -6151,7 +6170,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>44</v>
       </c>
@@ -6165,7 +6184,7 @@
         <v>990</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
         <v>45</v>
       </c>
@@ -6182,7 +6201,7 @@
         <v>991</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
         <v>46</v>
       </c>
@@ -6196,7 +6215,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
         <v>36</v>
       </c>
@@ -6213,7 +6232,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
         <v>37</v>
       </c>
@@ -6227,7 +6246,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
         <v>38</v>
       </c>
@@ -6244,7 +6263,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
         <v>69</v>
       </c>
@@ -6261,7 +6280,7 @@
         <v>1012</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
         <v>1616</v>
       </c>
@@ -6278,7 +6297,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
         <v>34</v>
       </c>
@@ -6292,7 +6311,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
         <v>35</v>
       </c>
@@ -6306,7 +6325,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
         <v>1531</v>
       </c>
@@ -6323,7 +6342,7 @@
         <v>966</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
@@ -6337,7 +6356,7 @@
         <v>967</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
         <v>19</v>
       </c>
@@ -6354,7 +6373,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
         <v>20</v>
       </c>
@@ -6371,7 +6390,7 @@
         <v>969</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
         <v>21</v>
       </c>
@@ -6388,7 +6407,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
         <v>22</v>
       </c>
@@ -6402,7 +6421,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
         <v>23</v>
       </c>
@@ -6419,7 +6438,7 @@
         <v>973</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
         <v>24</v>
       </c>
@@ -6436,7 +6455,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
         <v>25</v>
       </c>
@@ -6450,7 +6469,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
         <v>26</v>
       </c>
@@ -6464,7 +6483,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
         <v>27</v>
       </c>
@@ -6478,7 +6497,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
         <v>28</v>
       </c>
@@ -6492,7 +6511,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
         <v>30</v>
       </c>
@@ -6509,7 +6528,7 @@
         <v>968</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -6523,7 +6542,7 @@
         <v>978</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
         <v>32</v>
       </c>
@@ -6540,7 +6559,7 @@
         <v>979</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
         <v>33</v>
       </c>
@@ -6557,7 +6576,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
         <v>39</v>
       </c>
@@ -6574,7 +6593,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
         <v>40</v>
       </c>
@@ -6588,7 +6607,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
         <v>41</v>
       </c>
@@ -6605,7 +6624,7 @@
         <v>987</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
         <v>42</v>
       </c>
@@ -6619,11 +6638,13 @@
         <v>988</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
         <v>1526</v>
       </c>
-      <c r="B70" s="4"/>
+      <c r="B70" s="2" t="s">
+        <v>863</v>
+      </c>
       <c r="C70" s="2">
         <v>3</v>
       </c>
@@ -6634,7 +6655,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
         <v>29</v>
       </c>
@@ -6646,7 +6667,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
         <v>51</v>
       </c>
@@ -6658,7 +6679,7 @@
         <v>996</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
         <v>1630</v>
       </c>
@@ -6670,7 +6691,7 @@
         <v>999</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
         <v>57</v>
       </c>
@@ -6685,7 +6706,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
         <v>62</v>
       </c>
@@ -6697,7 +6718,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
         <v>65</v>
       </c>
@@ -6712,7 +6733,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
         <v>66</v>
       </c>
@@ -6724,7 +6745,7 @@
         <v>1009</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
         <v>67</v>
       </c>
@@ -6739,7 +6760,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
         <v>70</v>
       </c>
@@ -6754,7 +6775,7 @@
         <v>1013</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
         <v>74</v>
       </c>
@@ -6771,7 +6792,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
         <v>75</v>
       </c>
@@ -6788,7 +6809,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
         <v>76</v>
       </c>
@@ -6805,7 +6826,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
         <v>77</v>
       </c>
@@ -6822,7 +6843,7 @@
         <v>1017</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
         <v>78</v>
       </c>
@@ -6839,7 +6860,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
         <v>104</v>
       </c>
@@ -6856,7 +6877,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
         <v>79</v>
       </c>
@@ -6873,7 +6894,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
         <v>80</v>
       </c>
@@ -6890,7 +6911,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
         <v>81</v>
       </c>
@@ -6904,7 +6925,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
         <v>82</v>
       </c>
@@ -6921,7 +6942,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
         <v>83</v>
       </c>
@@ -6935,7 +6956,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
         <v>84</v>
       </c>
@@ -6949,7 +6970,7 @@
         <v>1020</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
         <v>85</v>
       </c>
@@ -6963,7 +6984,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
         <v>86</v>
       </c>
@@ -6977,7 +6998,7 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
         <v>87</v>
       </c>
@@ -6991,7 +7012,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
         <v>88</v>
       </c>
@@ -7008,7 +7029,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
         <v>89</v>
       </c>
@@ -7022,7 +7043,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
         <v>90</v>
       </c>
@@ -7036,7 +7057,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
         <v>91</v>
       </c>
@@ -7050,7 +7071,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
         <v>92</v>
       </c>
@@ -7067,7 +7088,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
         <v>93</v>
       </c>
@@ -7084,7 +7105,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
         <v>94</v>
       </c>
@@ -7101,7 +7122,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
         <v>95</v>
       </c>
@@ -7115,7 +7136,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
         <v>96</v>
       </c>
@@ -7132,7 +7153,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
         <v>97</v>
       </c>
@@ -7146,7 +7167,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
         <v>98</v>
       </c>
@@ -7160,7 +7181,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
         <v>99</v>
       </c>
@@ -7174,7 +7195,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
         <v>100</v>
       </c>
@@ -7188,7 +7209,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
         <v>101</v>
       </c>
@@ -7202,7 +7223,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
         <v>102</v>
       </c>
@@ -7216,7 +7237,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="110" spans="1:5">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
         <v>103</v>
       </c>
@@ -7230,7 +7251,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="111" spans="1:5">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
         <v>1535</v>
       </c>
@@ -7242,7 +7263,7 @@
         <v>1021</v>
       </c>
     </row>
-    <row r="112" spans="1:5">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
         <v>105</v>
       </c>
@@ -7259,7 +7280,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="113" spans="1:5">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
         <v>106</v>
       </c>
@@ -7276,7 +7297,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="114" spans="1:5">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
         <v>107</v>
       </c>
@@ -7293,7 +7314,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="115" spans="1:5">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="s">
         <v>108</v>
       </c>
@@ -7310,7 +7331,7 @@
         <v>1028</v>
       </c>
     </row>
-    <row r="116" spans="1:5">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="s">
         <v>109</v>
       </c>
@@ -7327,7 +7348,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="117" spans="1:5">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="2" t="s">
         <v>110</v>
       </c>
@@ -7344,7 +7365,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="118" spans="1:5">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="2" t="s">
         <v>111</v>
       </c>
@@ -7358,7 +7379,7 @@
         <v>1029</v>
       </c>
     </row>
-    <row r="119" spans="1:5">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="2" t="s">
         <v>112</v>
       </c>
@@ -7369,7 +7390,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="120" spans="1:5">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="2" t="s">
         <v>113</v>
       </c>
@@ -7386,7 +7407,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="121" spans="1:5">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="2" t="s">
         <v>114</v>
       </c>
@@ -7403,7 +7424,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="122" spans="1:5">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="2" t="s">
         <v>115</v>
       </c>
@@ -7420,7 +7441,7 @@
         <v>1031</v>
       </c>
     </row>
-    <row r="123" spans="1:5">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="2" t="s">
         <v>116</v>
       </c>
@@ -7434,7 +7455,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="124" spans="1:5">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="2" t="s">
         <v>117</v>
       </c>
@@ -7451,7 +7472,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="125" spans="1:5">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="2" t="s">
         <v>118</v>
       </c>
@@ -7468,7 +7489,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="126" spans="1:5">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="2" t="s">
         <v>119</v>
       </c>
@@ -7485,7 +7506,7 @@
         <v>1034</v>
       </c>
     </row>
-    <row r="127" spans="1:5">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="2" t="s">
         <v>120</v>
       </c>
@@ -7496,7 +7517,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="128" spans="1:5">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="2" t="s">
         <v>121</v>
       </c>
@@ -7513,7 +7534,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="129" spans="1:5">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="2" t="s">
         <v>122</v>
       </c>
@@ -7527,7 +7548,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="130" spans="1:5">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="2" t="s">
         <v>123</v>
       </c>
@@ -7544,7 +7565,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="131" spans="1:5">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="2" t="s">
         <v>1617</v>
       </c>
@@ -7555,7 +7576,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="132" spans="1:5">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="2" t="s">
         <v>124</v>
       </c>
@@ -7569,7 +7590,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="133" spans="1:5">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="2" t="s">
         <v>125</v>
       </c>
@@ -7583,7 +7604,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="134" spans="1:5">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="2" t="s">
         <v>126</v>
       </c>
@@ -7600,7 +7621,7 @@
         <v>1018</v>
       </c>
     </row>
-    <row r="135" spans="1:5">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="2" t="s">
         <v>127</v>
       </c>
@@ -7614,7 +7635,7 @@
         <v>1039</v>
       </c>
     </row>
-    <row r="136" spans="1:5">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="2" t="s">
         <v>128</v>
       </c>
@@ -7628,7 +7649,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="137" spans="1:5">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="2" t="s">
         <v>129</v>
       </c>
@@ -7645,7 +7666,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="138" spans="1:5">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="2" t="s">
         <v>130</v>
       </c>
@@ -7662,7 +7683,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="139" spans="1:5">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="2" t="s">
         <v>131</v>
       </c>
@@ -7679,7 +7700,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="140" spans="1:5">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="2" t="s">
         <v>132</v>
       </c>
@@ -7696,7 +7717,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="141" spans="1:5">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="2" t="s">
         <v>133</v>
       </c>
@@ -7713,7 +7734,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="142" spans="1:5">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="2" t="s">
         <v>134</v>
       </c>
@@ -7730,7 +7751,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="143" spans="1:5">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="2" t="s">
         <v>135</v>
       </c>
@@ -7747,7 +7768,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="144" spans="1:5">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="2" t="s">
         <v>136</v>
       </c>
@@ -7764,7 +7785,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="145" spans="1:5">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="2" t="s">
         <v>137</v>
       </c>
@@ -7781,7 +7802,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="146" spans="1:5">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="2" t="s">
         <v>138</v>
       </c>
@@ -7798,7 +7819,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="147" spans="1:5">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="2" t="s">
         <v>139</v>
       </c>
@@ -7815,7 +7836,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="148" spans="1:5">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="2" t="s">
         <v>140</v>
       </c>
@@ -7832,7 +7853,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="149" spans="1:5">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="2" t="s">
         <v>141</v>
       </c>
@@ -7849,7 +7870,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="150" spans="1:5">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="2" t="s">
         <v>142</v>
       </c>
@@ -7863,7 +7884,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="151" spans="1:5">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" s="2" t="s">
         <v>143</v>
       </c>
@@ -7880,7 +7901,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="152" spans="1:5">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="2" t="s">
         <v>144</v>
       </c>
@@ -7897,7 +7918,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="153" spans="1:5">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153" s="2" t="s">
         <v>145</v>
       </c>
@@ -7911,7 +7932,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="154" spans="1:5">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="2" t="s">
         <v>146</v>
       </c>
@@ -7928,7 +7949,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="155" spans="1:5">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="2" t="s">
         <v>147</v>
       </c>
@@ -7942,7 +7963,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="156" spans="1:5">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="2" t="s">
         <v>148</v>
       </c>
@@ -7956,7 +7977,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="157" spans="1:5">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157" s="2" t="s">
         <v>149</v>
       </c>
@@ -7973,7 +7994,7 @@
         <v>1051</v>
       </c>
     </row>
-    <row r="158" spans="1:5">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="2" t="s">
         <v>150</v>
       </c>
@@ -7990,7 +8011,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="159" spans="1:5">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="2" t="s">
         <v>151</v>
       </c>
@@ -8004,7 +8025,7 @@
         <v>1052</v>
       </c>
     </row>
-    <row r="160" spans="1:5">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="2" t="s">
         <v>152</v>
       </c>
@@ -8021,7 +8042,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="161" spans="1:5">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="2" t="s">
         <v>153</v>
       </c>
@@ -8035,7 +8056,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="162" spans="1:5">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="2" t="s">
         <v>154</v>
       </c>
@@ -8052,7 +8073,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="163" spans="1:5">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="2" t="s">
         <v>155</v>
       </c>
@@ -8069,7 +8090,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="164" spans="1:5">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="2" t="s">
         <v>156</v>
       </c>
@@ -8086,7 +8107,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="165" spans="1:5">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="2" t="s">
         <v>157</v>
       </c>
@@ -8100,7 +8121,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="166" spans="1:5">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="2" t="s">
         <v>158</v>
       </c>
@@ -8114,7 +8135,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="167" spans="1:5">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="2" t="s">
         <v>159</v>
       </c>
@@ -8128,7 +8149,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="168" spans="1:5">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="2" t="s">
         <v>160</v>
       </c>
@@ -8145,7 +8166,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="169" spans="1:5">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="2" t="s">
         <v>161</v>
       </c>
@@ -8162,7 +8183,7 @@
         <v>1055</v>
       </c>
     </row>
-    <row r="170" spans="1:5">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="2" t="s">
         <v>162</v>
       </c>
@@ -8176,7 +8197,7 @@
         <v>1056</v>
       </c>
     </row>
-    <row r="171" spans="1:5">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="2" t="s">
         <v>163</v>
       </c>
@@ -8190,7 +8211,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="172" spans="1:5">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="2" t="s">
         <v>164</v>
       </c>
@@ -8204,7 +8225,7 @@
         <v>1058</v>
       </c>
     </row>
-    <row r="173" spans="1:5">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="2" t="s">
         <v>165</v>
       </c>
@@ -8218,7 +8239,7 @@
         <v>1059</v>
       </c>
     </row>
-    <row r="174" spans="1:5">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="2" t="s">
         <v>186</v>
       </c>
@@ -8235,7 +8256,7 @@
         <v>1074</v>
       </c>
     </row>
-    <row r="175" spans="1:5">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="2" t="s">
         <v>187</v>
       </c>
@@ -8252,7 +8273,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="176" spans="1:5">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="2" t="s">
         <v>201</v>
       </c>
@@ -8269,7 +8290,7 @@
         <v>1080</v>
       </c>
     </row>
-    <row r="177" spans="1:5">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177" s="2" t="s">
         <v>202</v>
       </c>
@@ -8286,7 +8307,7 @@
         <v>1081</v>
       </c>
     </row>
-    <row r="178" spans="1:5">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="2" t="s">
         <v>203</v>
       </c>
@@ -8303,7 +8324,7 @@
         <v>1082</v>
       </c>
     </row>
-    <row r="179" spans="1:5">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="2" t="s">
         <v>217</v>
       </c>
@@ -8317,7 +8338,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="180" spans="1:5">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="2" t="s">
         <v>218</v>
       </c>
@@ -8334,7 +8355,7 @@
         <v>1089</v>
       </c>
     </row>
-    <row r="181" spans="1:5">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="2" t="s">
         <v>1601</v>
       </c>
@@ -8348,7 +8369,7 @@
         <v>1090</v>
       </c>
     </row>
-    <row r="182" spans="1:5">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="2" t="s">
         <v>219</v>
       </c>
@@ -8362,7 +8383,7 @@
         <v>1091</v>
       </c>
     </row>
-    <row r="183" spans="1:5">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="2" t="s">
         <v>166</v>
       </c>
@@ -8379,7 +8400,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="184" spans="1:5">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184" s="2" t="s">
         <v>167</v>
       </c>
@@ -8396,7 +8417,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="185" spans="1:5">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="2" t="s">
         <v>168</v>
       </c>
@@ -8413,7 +8434,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="186" spans="1:5">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="2" t="s">
         <v>169</v>
       </c>
@@ -8430,7 +8451,7 @@
         <v>1061</v>
       </c>
     </row>
-    <row r="187" spans="1:5">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="2" t="s">
         <v>170</v>
       </c>
@@ -8447,7 +8468,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="188" spans="1:5">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="2" t="s">
         <v>171</v>
       </c>
@@ -8464,7 +8485,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="189" spans="1:5">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="2" t="s">
         <v>172</v>
       </c>
@@ -8481,7 +8502,7 @@
         <v>1064</v>
       </c>
     </row>
-    <row r="190" spans="1:5">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="2" t="s">
         <v>173</v>
       </c>
@@ -8495,7 +8516,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="191" spans="1:5">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="2" t="s">
         <v>174</v>
       </c>
@@ -8509,7 +8530,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="192" spans="1:5">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="2" t="s">
         <v>175</v>
       </c>
@@ -8523,7 +8544,7 @@
         <v>1066</v>
       </c>
     </row>
-    <row r="193" spans="1:5">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="2" t="s">
         <v>176</v>
       </c>
@@ -8540,7 +8561,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="194" spans="1:5">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="2" t="s">
         <v>177</v>
       </c>
@@ -8554,7 +8575,7 @@
         <v>1068</v>
       </c>
     </row>
-    <row r="195" spans="1:5">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="2" t="s">
         <v>178</v>
       </c>
@@ -8568,7 +8589,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="196" spans="1:5">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="2" t="s">
         <v>179</v>
       </c>
@@ -8582,7 +8603,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="197" spans="1:5">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="2" t="s">
         <v>180</v>
       </c>
@@ -8596,7 +8617,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="198" spans="1:5">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="2" t="s">
         <v>181</v>
       </c>
@@ -8610,7 +8631,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="199" spans="1:5">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="2" t="s">
         <v>182</v>
       </c>
@@ -8624,7 +8645,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="200" spans="1:5">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="2" t="s">
         <v>183</v>
       </c>
@@ -8641,7 +8662,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="201" spans="1:5">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="2" t="s">
         <v>184</v>
       </c>
@@ -8655,7 +8676,7 @@
         <v>1073</v>
       </c>
     </row>
-    <row r="202" spans="1:5">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A202" s="2" t="s">
         <v>185</v>
       </c>
@@ -8669,7 +8690,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="203" spans="1:5">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="2" t="s">
         <v>188</v>
       </c>
@@ -8683,7 +8704,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="204" spans="1:5">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="2" t="s">
         <v>189</v>
       </c>
@@ -8697,7 +8718,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="205" spans="1:5">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="2" t="s">
         <v>190</v>
       </c>
@@ -8711,7 +8732,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="206" spans="1:5">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="2" t="s">
         <v>191</v>
       </c>
@@ -8725,7 +8746,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="207" spans="1:5">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="2" t="s">
         <v>192</v>
       </c>
@@ -8739,7 +8760,7 @@
         <v>1077</v>
       </c>
     </row>
-    <row r="208" spans="1:5">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="2" t="s">
         <v>193</v>
       </c>
@@ -8753,7 +8774,7 @@
         <v>1078</v>
       </c>
     </row>
-    <row r="209" spans="1:5">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="2" t="s">
         <v>194</v>
       </c>
@@ -8767,7 +8788,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="210" spans="1:5">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="2" t="s">
         <v>195</v>
       </c>
@@ -8778,7 +8799,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="211" spans="1:5">
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="2" t="s">
         <v>196</v>
       </c>
@@ -8792,7 +8813,7 @@
         <v>1072</v>
       </c>
     </row>
-    <row r="212" spans="1:5">
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" s="2" t="s">
         <v>197</v>
       </c>
@@ -8809,7 +8830,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="213" spans="1:5">
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="2" t="s">
         <v>198</v>
       </c>
@@ -8826,7 +8847,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="214" spans="1:5">
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="2" t="s">
         <v>199</v>
       </c>
@@ -8840,7 +8861,7 @@
         <v>1079</v>
       </c>
     </row>
-    <row r="215" spans="1:5">
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="2" t="s">
         <v>200</v>
       </c>
@@ -8857,7 +8878,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="216" spans="1:5">
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="2" t="s">
         <v>204</v>
       </c>
@@ -8874,7 +8895,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="217" spans="1:5">
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="2" t="s">
         <v>205</v>
       </c>
@@ -8888,7 +8909,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="218" spans="1:5">
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="2" t="s">
         <v>206</v>
       </c>
@@ -8902,7 +8923,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="219" spans="1:5">
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="2" t="s">
         <v>207</v>
       </c>
@@ -8916,7 +8937,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="220" spans="1:5">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="2" t="s">
         <v>208</v>
       </c>
@@ -8930,7 +8951,7 @@
         <v>1083</v>
       </c>
     </row>
-    <row r="221" spans="1:5">
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="2" t="s">
         <v>209</v>
       </c>
@@ -8944,7 +8965,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="222" spans="1:5">
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" s="2" t="s">
         <v>210</v>
       </c>
@@ -8958,7 +8979,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="223" spans="1:5">
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="2" t="s">
         <v>211</v>
       </c>
@@ -8975,7 +8996,7 @@
         <v>1063</v>
       </c>
     </row>
-    <row r="224" spans="1:5">
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="2" t="s">
         <v>212</v>
       </c>
@@ -8989,7 +9010,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="225" spans="1:5">
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="2" t="s">
         <v>213</v>
       </c>
@@ -9006,7 +9027,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="226" spans="1:5">
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="2" t="s">
         <v>214</v>
       </c>
@@ -9023,7 +9044,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="227" spans="1:5">
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A227" s="2" t="s">
         <v>216</v>
       </c>
@@ -9040,11 +9061,13 @@
         <v>1087</v>
       </c>
     </row>
-    <row r="228" spans="1:5">
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="2" t="s">
         <v>1618</v>
       </c>
-      <c r="B228" s="4"/>
+      <c r="B228" s="4" t="s">
+        <v>1652</v>
+      </c>
       <c r="C228" s="2">
         <v>12</v>
       </c>
@@ -9052,11 +9075,13 @@
         <v>971</v>
       </c>
     </row>
-    <row r="229" spans="1:5">
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B229" s="4"/>
+      <c r="B229" s="2" t="s">
+        <v>1543</v>
+      </c>
       <c r="C229" s="2">
         <v>12</v>
       </c>
@@ -9064,7 +9089,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="230" spans="1:5">
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="2" t="s">
         <v>233</v>
       </c>
@@ -9081,22 +9106,24 @@
         <v>1102</v>
       </c>
     </row>
-    <row r="231" spans="1:5">
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="2" t="s">
         <v>1619</v>
       </c>
-      <c r="B231" s="4" t="s">
-        <v>1537</v>
+      <c r="B231" s="2" t="s">
+        <v>1653</v>
       </c>
       <c r="C231" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="232" spans="1:5">
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="B232" s="4"/>
+      <c r="B232" s="4" t="s">
+        <v>1654</v>
+      </c>
       <c r="C232" s="2">
         <v>13</v>
       </c>
@@ -9104,11 +9131,13 @@
         <v>1092</v>
       </c>
     </row>
-    <row r="233" spans="1:5">
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B233" s="4"/>
+      <c r="B233" s="2" t="s">
+        <v>884</v>
+      </c>
       <c r="C233" s="2">
         <v>13</v>
       </c>
@@ -9119,11 +9148,13 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="234" spans="1:5">
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="B234" s="4"/>
+      <c r="B234" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C234" s="2">
         <v>13</v>
       </c>
@@ -9134,11 +9165,13 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="235" spans="1:5">
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="B235" s="4"/>
+      <c r="B235" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C235" s="2">
         <v>13</v>
       </c>
@@ -9146,20 +9179,24 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="236" spans="1:5">
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B236" s="4"/>
+      <c r="B236" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C236" s="2">
         <v>13</v>
       </c>
     </row>
-    <row r="237" spans="1:5">
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B237" s="4"/>
+      <c r="B237" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C237" s="2">
         <v>13</v>
       </c>
@@ -9170,7 +9207,7 @@
         <v>1096</v>
       </c>
     </row>
-    <row r="238" spans="1:5">
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="2" t="s">
         <v>226</v>
       </c>
@@ -9184,11 +9221,13 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="239" spans="1:5">
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A239" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B239" s="4"/>
+      <c r="B239" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C239" s="2">
         <v>13</v>
       </c>
@@ -9199,7 +9238,7 @@
         <v>1098</v>
       </c>
     </row>
-    <row r="240" spans="1:5">
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="2" t="s">
         <v>228</v>
       </c>
@@ -9216,7 +9255,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="241" spans="1:5">
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A241" s="2" t="s">
         <v>229</v>
       </c>
@@ -9233,7 +9272,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="242" spans="1:5">
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="2" t="s">
         <v>230</v>
       </c>
@@ -9250,11 +9289,13 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="243" spans="1:5">
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A243" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="B243" s="4"/>
+      <c r="B243" s="2" t="s">
+        <v>858</v>
+      </c>
       <c r="C243" s="2">
         <v>13</v>
       </c>
@@ -9262,11 +9303,13 @@
         <v>858</v>
       </c>
     </row>
-    <row r="244" spans="1:5">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B244" s="4"/>
+      <c r="B244" s="2" t="s">
+        <v>1651</v>
+      </c>
       <c r="C244" s="2">
         <v>13</v>
       </c>
@@ -9277,7 +9320,7 @@
         <v>1101</v>
       </c>
     </row>
-    <row r="245" spans="1:5">
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="2" t="s">
         <v>234</v>
       </c>
@@ -9294,7 +9337,7 @@
         <v>1103</v>
       </c>
     </row>
-    <row r="246" spans="1:5">
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A246" s="2" t="s">
         <v>236</v>
       </c>
@@ -9311,29 +9354,35 @@
         <v>1104</v>
       </c>
     </row>
-    <row r="247" spans="1:5">
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B247" s="4"/>
+      <c r="B247" s="4" t="s">
+        <v>1557</v>
+      </c>
       <c r="C247" s="2">
         <v>14</v>
       </c>
     </row>
-    <row r="248" spans="1:5">
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B248" s="4"/>
+      <c r="B248" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C248" s="2">
         <v>15</v>
       </c>
     </row>
-    <row r="249" spans="1:5">
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="B249" s="4"/>
+      <c r="B249" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C249" s="2">
         <v>15</v>
       </c>
@@ -9344,11 +9393,13 @@
         <v>1105</v>
       </c>
     </row>
-    <row r="250" spans="1:5">
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B250" s="4"/>
+      <c r="B250" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C250" s="2">
         <v>15</v>
       </c>
@@ -9356,11 +9407,13 @@
         <v>1106</v>
       </c>
     </row>
-    <row r="251" spans="1:5">
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="B251" s="4"/>
+      <c r="B251" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C251" s="2">
         <v>15</v>
       </c>
@@ -9371,11 +9424,13 @@
         <v>1107</v>
       </c>
     </row>
-    <row r="252" spans="1:5">
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="2" t="s">
         <v>241</v>
       </c>
-      <c r="B252" s="4"/>
+      <c r="B252" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C252" s="2">
         <v>15</v>
       </c>
@@ -9386,11 +9441,13 @@
         <v>1108</v>
       </c>
     </row>
-    <row r="253" spans="1:5">
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B253" s="4"/>
+      <c r="B253" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C253" s="2">
         <v>16</v>
       </c>
@@ -9401,11 +9458,13 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="254" spans="1:5">
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="B254" s="4"/>
+      <c r="B254" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C254" s="2">
         <v>16</v>
       </c>
@@ -9416,11 +9475,13 @@
         <v>1110</v>
       </c>
     </row>
-    <row r="255" spans="1:5">
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="B255" s="4"/>
+      <c r="B255" s="2" t="s">
+        <v>889</v>
+      </c>
       <c r="C255" s="2">
         <v>16</v>
       </c>
@@ -9431,7 +9492,7 @@
         <v>1111</v>
       </c>
     </row>
-    <row r="256" spans="1:5">
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="2" t="s">
         <v>245</v>
       </c>
@@ -9448,7 +9509,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="257" spans="1:5">
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="2" t="s">
         <v>246</v>
       </c>
@@ -9465,7 +9526,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="258" spans="1:5">
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A258" s="2" t="s">
         <v>247</v>
       </c>
@@ -9479,7 +9540,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="259" spans="1:5">
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A259" s="2" t="s">
         <v>248</v>
       </c>
@@ -9496,7 +9557,7 @@
         <v>1112</v>
       </c>
     </row>
-    <row r="260" spans="1:5">
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="2" t="s">
         <v>249</v>
       </c>
@@ -9507,7 +9568,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="261" spans="1:5">
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A261" s="2" t="s">
         <v>250</v>
       </c>
@@ -9518,7 +9579,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="262" spans="1:5">
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A262" s="2" t="s">
         <v>251</v>
       </c>
@@ -9532,7 +9593,7 @@
         <v>1113</v>
       </c>
     </row>
-    <row r="263" spans="1:5">
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="2" t="s">
         <v>252</v>
       </c>
@@ -9549,7 +9610,7 @@
         <v>1099</v>
       </c>
     </row>
-    <row r="264" spans="1:5">
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="2" t="s">
         <v>253</v>
       </c>
@@ -9566,7 +9627,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="265" spans="1:5">
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="2" t="s">
         <v>254</v>
       </c>
@@ -9583,7 +9644,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="266" spans="1:5">
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="2" t="s">
         <v>255</v>
       </c>
@@ -9600,7 +9661,7 @@
         <v>1114</v>
       </c>
     </row>
-    <row r="267" spans="1:5">
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="2" t="s">
         <v>256</v>
       </c>
@@ -9614,7 +9675,7 @@
         <v>1116</v>
       </c>
     </row>
-    <row r="268" spans="1:5">
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A268" s="2" t="s">
         <v>257</v>
       </c>
@@ -9628,7 +9689,7 @@
         <v>1117</v>
       </c>
     </row>
-    <row r="269" spans="1:5">
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="2" t="s">
         <v>258</v>
       </c>
@@ -9642,7 +9703,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="270" spans="1:5">
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="2" t="s">
         <v>259</v>
       </c>
@@ -9656,7 +9717,7 @@
         <v>1119</v>
       </c>
     </row>
-    <row r="271" spans="1:5">
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="2" t="s">
         <v>260</v>
       </c>
@@ -9670,7 +9731,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="272" spans="1:5">
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="2" t="s">
         <v>261</v>
       </c>
@@ -9684,7 +9745,7 @@
         <v>1118</v>
       </c>
     </row>
-    <row r="273" spans="1:5">
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="2" t="s">
         <v>262</v>
       </c>
@@ -9698,7 +9759,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="274" spans="1:5">
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="2" t="s">
         <v>263</v>
       </c>
@@ -9712,7 +9773,7 @@
         <v>1121</v>
       </c>
     </row>
-    <row r="275" spans="1:5">
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="2" t="s">
         <v>264</v>
       </c>
@@ -9726,7 +9787,7 @@
         <v>1122</v>
       </c>
     </row>
-    <row r="276" spans="1:5">
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="2" t="s">
         <v>265</v>
       </c>
@@ -9740,7 +9801,7 @@
         <v>1123</v>
       </c>
     </row>
-    <row r="277" spans="1:5">
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="2" t="s">
         <v>266</v>
       </c>
@@ -9754,11 +9815,13 @@
         <v>1124</v>
       </c>
     </row>
-    <row r="278" spans="1:5">
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B278" s="4"/>
+      <c r="B278" s="4" t="s">
+        <v>1621</v>
+      </c>
       <c r="C278" s="2">
         <v>18</v>
       </c>
@@ -9766,7 +9829,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="279" spans="1:5">
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="2" t="s">
         <v>274</v>
       </c>
@@ -9780,7 +9843,7 @@
         <v>1133</v>
       </c>
     </row>
-    <row r="280" spans="1:5">
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="2" t="s">
         <v>275</v>
       </c>
@@ -9794,7 +9857,7 @@
         <v>1134</v>
       </c>
     </row>
-    <row r="281" spans="1:5">
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="2" t="s">
         <v>268</v>
       </c>
@@ -9811,7 +9874,7 @@
         <v>1126</v>
       </c>
     </row>
-    <row r="282" spans="1:5">
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="2" t="s">
         <v>269</v>
       </c>
@@ -9825,7 +9888,7 @@
         <v>1127</v>
       </c>
     </row>
-    <row r="283" spans="1:5">
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="2" t="s">
         <v>270</v>
       </c>
@@ -9839,7 +9902,7 @@
         <v>1128</v>
       </c>
     </row>
-    <row r="284" spans="1:5">
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="2" t="s">
         <v>271</v>
       </c>
@@ -9853,7 +9916,7 @@
         <v>1129</v>
       </c>
     </row>
-    <row r="285" spans="1:5">
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="2" t="s">
         <v>272</v>
       </c>
@@ -9867,7 +9930,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="286" spans="1:5">
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A286" s="2" t="s">
         <v>1610</v>
       </c>
@@ -9881,7 +9944,7 @@
         <v>1131</v>
       </c>
     </row>
-    <row r="287" spans="1:5">
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="2" t="s">
         <v>273</v>
       </c>
@@ -9898,7 +9961,7 @@
         <v>1132</v>
       </c>
     </row>
-    <row r="288" spans="1:5">
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="2" t="s">
         <v>276</v>
       </c>
@@ -9915,7 +9978,7 @@
         <v>1135</v>
       </c>
     </row>
-    <row r="289" spans="1:5">
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="2" t="s">
         <v>277</v>
       </c>
@@ -9929,7 +9992,7 @@
         <v>1136</v>
       </c>
     </row>
-    <row r="290" spans="1:5">
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="2" t="s">
         <v>278</v>
       </c>
@@ -9943,7 +10006,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="291" spans="1:5">
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="2" t="s">
         <v>279</v>
       </c>
@@ -9960,7 +10023,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="292" spans="1:5">
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="2" t="s">
         <v>280</v>
       </c>
@@ -9971,7 +10034,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="293" spans="1:5">
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="2" t="s">
         <v>281</v>
       </c>
@@ -9985,7 +10048,7 @@
         <v>1138</v>
       </c>
     </row>
-    <row r="294" spans="1:5">
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="2" t="s">
         <v>282</v>
       </c>
@@ -9999,7 +10062,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="295" spans="1:5">
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="2" t="s">
         <v>283</v>
       </c>
@@ -10013,7 +10076,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="296" spans="1:5">
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="2" t="s">
         <v>284</v>
       </c>
@@ -10027,7 +10090,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="297" spans="1:5">
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="2" t="s">
         <v>285</v>
       </c>
@@ -10041,7 +10104,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="298" spans="1:5">
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="2" t="s">
         <v>286</v>
       </c>
@@ -10055,7 +10118,7 @@
         <v>1097</v>
       </c>
     </row>
-    <row r="299" spans="1:5">
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="2" t="s">
         <v>287</v>
       </c>
@@ -10069,7 +10132,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="300" spans="1:5">
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="2" t="s">
         <v>288</v>
       </c>
@@ -10083,7 +10146,7 @@
         <v>1141</v>
       </c>
     </row>
-    <row r="301" spans="1:5">
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="2" t="s">
         <v>289</v>
       </c>
@@ -10097,7 +10160,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="302" spans="1:5">
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="2" t="s">
         <v>290</v>
       </c>
@@ -10111,7 +10174,7 @@
         <v>1140</v>
       </c>
     </row>
-    <row r="303" spans="1:5">
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="2" t="s">
         <v>291</v>
       </c>
@@ -10125,7 +10188,7 @@
         <v>1143</v>
       </c>
     </row>
-    <row r="304" spans="1:5">
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="2" t="s">
         <v>292</v>
       </c>
@@ -10139,7 +10202,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="305" spans="1:5">
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="2" t="s">
         <v>293</v>
       </c>
@@ -10153,7 +10216,7 @@
         <v>1145</v>
       </c>
     </row>
-    <row r="306" spans="1:5">
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="2" t="s">
         <v>294</v>
       </c>
@@ -10167,7 +10230,7 @@
         <v>1142</v>
       </c>
     </row>
-    <row r="307" spans="1:5">
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="2" t="s">
         <v>295</v>
       </c>
@@ -10181,7 +10244,7 @@
         <v>1563</v>
       </c>
     </row>
-    <row r="308" spans="1:5">
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="2" t="s">
         <v>296</v>
       </c>
@@ -10198,7 +10261,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="309" spans="1:5">
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="2" t="s">
         <v>297</v>
       </c>
@@ -10212,7 +10275,7 @@
         <v>1144</v>
       </c>
     </row>
-    <row r="310" spans="1:5">
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="2" t="s">
         <v>298</v>
       </c>
@@ -10226,7 +10289,7 @@
         <v>1139</v>
       </c>
     </row>
-    <row r="311" spans="1:5">
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="2" t="s">
         <v>299</v>
       </c>
@@ -10240,7 +10303,7 @@
         <v>1146</v>
       </c>
     </row>
-    <row r="312" spans="1:5">
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="2" t="s">
         <v>311</v>
       </c>
@@ -10254,7 +10317,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="313" spans="1:5">
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="2" t="s">
         <v>312</v>
       </c>
@@ -10268,7 +10331,7 @@
         <v>1152</v>
       </c>
     </row>
-    <row r="314" spans="1:5">
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="2" t="s">
         <v>314</v>
       </c>
@@ -10282,7 +10345,7 @@
         <v>1153</v>
       </c>
     </row>
-    <row r="315" spans="1:5">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A315" s="2" t="s">
         <v>304</v>
       </c>
@@ -10296,7 +10359,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="316" spans="1:5">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="2" t="s">
         <v>1647</v>
       </c>
@@ -10310,7 +10373,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="317" spans="1:5">
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="2" t="s">
         <v>300</v>
       </c>
@@ -10327,7 +10390,7 @@
         <v>980</v>
       </c>
     </row>
-    <row r="318" spans="1:5">
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="2" t="s">
         <v>301</v>
       </c>
@@ -10341,7 +10404,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="319" spans="1:5">
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="2" t="s">
         <v>302</v>
       </c>
@@ -10355,7 +10418,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="320" spans="1:5">
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="2" t="s">
         <v>303</v>
       </c>
@@ -10369,7 +10432,7 @@
         <v>982</v>
       </c>
     </row>
-    <row r="321" spans="1:5">
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="2" t="s">
         <v>305</v>
       </c>
@@ -10383,7 +10446,7 @@
         <v>1004</v>
       </c>
     </row>
-    <row r="322" spans="1:5">
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="2" t="s">
         <v>1632</v>
       </c>
@@ -10400,7 +10463,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="323" spans="1:5">
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="2" t="s">
         <v>306</v>
       </c>
@@ -10414,7 +10477,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="324" spans="1:5">
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="2" t="s">
         <v>1631</v>
       </c>
@@ -10428,7 +10491,7 @@
         <v>1147</v>
       </c>
     </row>
-    <row r="325" spans="1:5">
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="2" t="s">
         <v>307</v>
       </c>
@@ -10442,7 +10505,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="326" spans="1:5">
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A326" s="2" t="s">
         <v>308</v>
       </c>
@@ -10456,7 +10519,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="327" spans="1:5">
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="2" t="s">
         <v>309</v>
       </c>
@@ -10470,7 +10533,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="328" spans="1:5">
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A328" s="2" t="s">
         <v>310</v>
       </c>
@@ -10484,7 +10547,7 @@
         <v>1151</v>
       </c>
     </row>
-    <row r="329" spans="1:5">
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="2" t="s">
         <v>313</v>
       </c>
@@ -10498,7 +10561,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="330" spans="1:5">
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="2" t="s">
         <v>315</v>
       </c>
@@ -10512,7 +10575,7 @@
         <v>1154</v>
       </c>
     </row>
-    <row r="331" spans="1:5">
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="2" t="s">
         <v>316</v>
       </c>
@@ -10526,7 +10589,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="332" spans="1:5">
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="2" t="s">
         <v>317</v>
       </c>
@@ -10543,7 +10606,7 @@
         <v>1156</v>
       </c>
     </row>
-    <row r="333" spans="1:5">
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="2" t="s">
         <v>318</v>
       </c>
@@ -10560,7 +10623,7 @@
         <v>1157</v>
       </c>
     </row>
-    <row r="334" spans="1:5">
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A334" s="2" t="s">
         <v>319</v>
       </c>
@@ -10574,7 +10637,7 @@
         <v>1158</v>
       </c>
     </row>
-    <row r="335" spans="1:5">
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="2" t="s">
         <v>320</v>
       </c>
@@ -10591,7 +10654,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="336" spans="1:5">
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="2" t="s">
         <v>321</v>
       </c>
@@ -10608,7 +10671,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="2" t="s">
         <v>322</v>
       </c>
@@ -10625,7 +10688,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="2" t="s">
         <v>323</v>
       </c>
@@ -10639,7 +10702,7 @@
         <v>1160</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="2" t="s">
         <v>324</v>
       </c>
@@ -10656,7 +10719,7 @@
         <v>1161</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A340" s="2" t="s">
         <v>325</v>
       </c>
@@ -10670,7 +10733,7 @@
         <v>1162</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="2" t="s">
         <v>326</v>
       </c>
@@ -10687,7 +10750,7 @@
         <v>1163</v>
       </c>
     </row>
-    <row r="342" spans="1:5">
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="2" t="s">
         <v>327</v>
       </c>
@@ -10701,7 +10764,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="343" spans="1:5">
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="2" t="s">
         <v>328</v>
       </c>
@@ -10712,7 +10775,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="344" spans="1:5">
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="2" t="s">
         <v>333</v>
       </c>
@@ -10729,7 +10792,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="345" spans="1:5">
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="2" t="s">
         <v>329</v>
       </c>
@@ -10746,7 +10809,7 @@
         <v>1165</v>
       </c>
     </row>
-    <row r="346" spans="1:5">
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="2" t="s">
         <v>330</v>
       </c>
@@ -10763,7 +10826,7 @@
         <v>1166</v>
       </c>
     </row>
-    <row r="347" spans="1:5">
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="2" t="s">
         <v>331</v>
       </c>
@@ -10777,7 +10840,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="348" spans="1:5">
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="2" t="s">
         <v>332</v>
       </c>
@@ -10794,7 +10857,7 @@
         <v>1168</v>
       </c>
     </row>
-    <row r="349" spans="1:5">
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="2" t="s">
         <v>334</v>
       </c>
@@ -10811,7 +10874,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="350" spans="1:5">
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="2" t="s">
         <v>335</v>
       </c>
@@ -10825,7 +10888,7 @@
         <v>1167</v>
       </c>
     </row>
-    <row r="351" spans="1:5">
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="2" t="s">
         <v>336</v>
       </c>
@@ -10839,7 +10902,7 @@
         <v>1171</v>
       </c>
     </row>
-    <row r="352" spans="1:5">
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="2" t="s">
         <v>337</v>
       </c>
@@ -10856,7 +10919,7 @@
         <v>1172</v>
       </c>
     </row>
-    <row r="353" spans="1:5">
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="2" t="s">
         <v>338</v>
       </c>
@@ -10870,7 +10933,7 @@
         <v>1173</v>
       </c>
     </row>
-    <row r="354" spans="1:5">
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="2" t="s">
         <v>339</v>
       </c>
@@ -10887,7 +10950,7 @@
         <v>1174</v>
       </c>
     </row>
-    <row r="355" spans="1:5">
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A355" s="2" t="s">
         <v>340</v>
       </c>
@@ -10904,7 +10967,7 @@
         <v>1170</v>
       </c>
     </row>
-    <row r="356" spans="1:5">
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="2" t="s">
         <v>341</v>
       </c>
@@ -10918,7 +10981,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="357" spans="1:5">
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="2" t="s">
         <v>1581</v>
       </c>
@@ -10935,7 +10998,7 @@
         <v>1181</v>
       </c>
     </row>
-    <row r="358" spans="1:5">
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A358" s="2" t="s">
         <v>342</v>
       </c>
@@ -10952,7 +11015,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="359" spans="1:5">
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="2" t="s">
         <v>343</v>
       </c>
@@ -10963,7 +11026,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="360" spans="1:5">
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="2" t="s">
         <v>344</v>
       </c>
@@ -10980,7 +11043,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="361" spans="1:5">
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="2" t="s">
         <v>345</v>
       </c>
@@ -10997,7 +11060,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="362" spans="1:5">
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="2" t="s">
         <v>346</v>
       </c>
@@ -11014,7 +11077,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="363" spans="1:5">
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="2" t="s">
         <v>347</v>
       </c>
@@ -11031,7 +11094,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="364" spans="1:5">
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="2" t="s">
         <v>348</v>
       </c>
@@ -11045,7 +11108,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="365" spans="1:5">
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="2" t="s">
         <v>349</v>
       </c>
@@ -11062,7 +11125,7 @@
         <v>1176</v>
       </c>
     </row>
-    <row r="366" spans="1:5">
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A366" s="2" t="s">
         <v>350</v>
       </c>
@@ -11079,7 +11142,7 @@
         <v>1179</v>
       </c>
     </row>
-    <row r="367" spans="1:5">
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="2" t="s">
         <v>351</v>
       </c>
@@ -11096,7 +11159,7 @@
         <v>1177</v>
       </c>
     </row>
-    <row r="368" spans="1:5">
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="2" t="s">
         <v>352</v>
       </c>
@@ -11113,7 +11176,7 @@
         <v>1180</v>
       </c>
     </row>
-    <row r="369" spans="1:5">
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="2" t="s">
         <v>353</v>
       </c>
@@ -11124,7 +11187,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="370" spans="1:5">
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A370" s="2" t="s">
         <v>354</v>
       </c>
@@ -11138,7 +11201,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="371" spans="1:5">
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="2" t="s">
         <v>355</v>
       </c>
@@ -11152,7 +11215,7 @@
         <v>1183</v>
       </c>
     </row>
-    <row r="372" spans="1:5">
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A372" s="2" t="s">
         <v>356</v>
       </c>
@@ -11166,7 +11229,7 @@
         <v>1184</v>
       </c>
     </row>
-    <row r="373" spans="1:5">
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="2" t="s">
         <v>357</v>
       </c>
@@ -11183,7 +11246,7 @@
         <v>1185</v>
       </c>
     </row>
-    <row r="374" spans="1:5">
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="2" t="s">
         <v>358</v>
       </c>
@@ -11197,7 +11260,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="375" spans="1:5">
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="2" t="s">
         <v>373</v>
       </c>
@@ -11214,7 +11277,7 @@
         <v>1199</v>
       </c>
     </row>
-    <row r="376" spans="1:5">
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A376" s="2" t="s">
         <v>374</v>
       </c>
@@ -11228,7 +11291,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="377" spans="1:5">
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A377" s="2" t="s">
         <v>375</v>
       </c>
@@ -11242,7 +11305,7 @@
         <v>1201</v>
       </c>
     </row>
-    <row r="378" spans="1:5">
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="2" t="s">
         <v>376</v>
       </c>
@@ -11256,7 +11319,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="379" spans="1:5">
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="2" t="s">
         <v>377</v>
       </c>
@@ -11273,7 +11336,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="380" spans="1:5">
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="2" t="s">
         <v>378</v>
       </c>
@@ -11287,7 +11350,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="381" spans="1:5">
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="2" t="s">
         <v>379</v>
       </c>
@@ -11304,7 +11367,7 @@
         <v>1204</v>
       </c>
     </row>
-    <row r="382" spans="1:5">
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="2" t="s">
         <v>380</v>
       </c>
@@ -11318,7 +11381,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="383" spans="1:5">
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="2" t="s">
         <v>381</v>
       </c>
@@ -11332,7 +11395,7 @@
         <v>1206</v>
       </c>
     </row>
-    <row r="384" spans="1:5">
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="2" t="s">
         <v>382</v>
       </c>
@@ -11346,7 +11409,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="385" spans="1:5">
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A385" s="2" t="s">
         <v>383</v>
       </c>
@@ -11360,7 +11423,7 @@
         <v>1208</v>
       </c>
     </row>
-    <row r="386" spans="1:5">
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A386" s="2" t="s">
         <v>384</v>
       </c>
@@ -11374,7 +11437,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="387" spans="1:5">
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A387" s="2" t="s">
         <v>385</v>
       </c>
@@ -11388,7 +11451,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="388" spans="1:5">
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="2" t="s">
         <v>386</v>
       </c>
@@ -11402,7 +11465,7 @@
         <v>1209</v>
       </c>
     </row>
-    <row r="389" spans="1:5">
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="2" t="s">
         <v>388</v>
       </c>
@@ -11416,7 +11479,7 @@
         <v>1561</v>
       </c>
     </row>
-    <row r="390" spans="1:5">
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="2" t="s">
         <v>389</v>
       </c>
@@ -11430,7 +11493,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="391" spans="1:5">
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A391" s="2" t="s">
         <v>390</v>
       </c>
@@ -11444,7 +11507,7 @@
         <v>1211</v>
       </c>
     </row>
-    <row r="392" spans="1:5">
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A392" s="2" t="s">
         <v>391</v>
       </c>
@@ -11458,7 +11521,7 @@
         <v>1212</v>
       </c>
     </row>
-    <row r="393" spans="1:5">
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A393" s="2" t="s">
         <v>392</v>
       </c>
@@ -11472,7 +11535,7 @@
         <v>1205</v>
       </c>
     </row>
-    <row r="394" spans="1:5">
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" s="2" t="s">
         <v>393</v>
       </c>
@@ -11486,7 +11549,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="395" spans="1:5">
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A395" s="2" t="s">
         <v>394</v>
       </c>
@@ -11500,7 +11563,7 @@
         <v>1214</v>
       </c>
     </row>
-    <row r="396" spans="1:5">
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A396" s="2" t="s">
         <v>395</v>
       </c>
@@ -11514,7 +11577,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="397" spans="1:5">
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A397" s="2" t="s">
         <v>364</v>
       </c>
@@ -11525,7 +11588,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="398" spans="1:5">
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A398" s="2" t="s">
         <v>365</v>
       </c>
@@ -11542,7 +11605,7 @@
         <v>1192</v>
       </c>
     </row>
-    <row r="399" spans="1:5">
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A399" s="2" t="s">
         <v>369</v>
       </c>
@@ -11559,7 +11622,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="400" spans="1:5">
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A400" s="2" t="s">
         <v>372</v>
       </c>
@@ -11576,7 +11639,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="401" spans="1:5">
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A401" s="2" t="s">
         <v>387</v>
       </c>
@@ -11593,7 +11656,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="402" spans="1:5">
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A402" s="2" t="s">
         <v>359</v>
       </c>
@@ -11610,7 +11673,7 @@
         <v>1187</v>
       </c>
     </row>
-    <row r="403" spans="1:5">
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A403" s="2" t="s">
         <v>360</v>
       </c>
@@ -11627,7 +11690,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="404" spans="1:5">
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A404" s="2" t="s">
         <v>361</v>
       </c>
@@ -11641,7 +11704,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="405" spans="1:5">
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A405" s="2" t="s">
         <v>362</v>
       </c>
@@ -11658,7 +11721,7 @@
         <v>1190</v>
       </c>
     </row>
-    <row r="406" spans="1:5">
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A406" s="2" t="s">
         <v>363</v>
       </c>
@@ -11672,7 +11735,7 @@
         <v>1191</v>
       </c>
     </row>
-    <row r="407" spans="1:5">
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A407" s="2" t="s">
         <v>366</v>
       </c>
@@ -11689,7 +11752,7 @@
         <v>1193</v>
       </c>
     </row>
-    <row r="408" spans="1:5">
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A408" s="2" t="s">
         <v>367</v>
       </c>
@@ -11703,7 +11766,7 @@
         <v>1194</v>
       </c>
     </row>
-    <row r="409" spans="1:5">
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A409" s="2" t="s">
         <v>368</v>
       </c>
@@ -11717,7 +11780,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="410" spans="1:5">
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A410" s="2" t="s">
         <v>370</v>
       </c>
@@ -11734,7 +11797,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="411" spans="1:5">
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A411" s="2" t="s">
         <v>371</v>
       </c>
@@ -11748,7 +11811,7 @@
         <v>1189</v>
       </c>
     </row>
-    <row r="412" spans="1:5">
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A412" s="2" t="s">
         <v>396</v>
       </c>
@@ -11762,7 +11825,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="413" spans="1:5">
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A413" s="2" t="s">
         <v>397</v>
       </c>
@@ -11776,7 +11839,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="414" spans="1:5">
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A414" s="2" t="s">
         <v>398</v>
       </c>
@@ -11793,7 +11856,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="415" spans="1:5">
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A415" s="2" t="s">
         <v>399</v>
       </c>
@@ -11810,7 +11873,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="416" spans="1:5">
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A416" s="2" t="s">
         <v>400</v>
       </c>
@@ -11827,7 +11890,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="417" spans="1:5">
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A417" s="2" t="s">
         <v>401</v>
       </c>
@@ -11844,7 +11907,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="418" spans="1:5">
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A418" s="2" t="s">
         <v>403</v>
       </c>
@@ -11861,7 +11924,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="419" spans="1:5">
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A419" s="2" t="s">
         <v>404</v>
       </c>
@@ -11878,7 +11941,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="420" spans="1:5">
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A420" s="2" t="s">
         <v>405</v>
       </c>
@@ -11895,7 +11958,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="421" spans="1:5">
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A421" s="2" t="s">
         <v>406</v>
       </c>
@@ -11912,7 +11975,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="422" spans="1:5">
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A422" s="2" t="s">
         <v>407</v>
       </c>
@@ -11929,7 +11992,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="423" spans="1:5">
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A423" s="2" t="s">
         <v>408</v>
       </c>
@@ -11946,7 +12009,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="424" spans="1:5">
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A424" s="2" t="s">
         <v>409</v>
       </c>
@@ -11960,7 +12023,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="425" spans="1:5">
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A425" s="2" t="s">
         <v>410</v>
       </c>
@@ -11977,7 +12040,7 @@
         <v>1222</v>
       </c>
     </row>
-    <row r="426" spans="1:5">
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A426" s="2" t="s">
         <v>411</v>
       </c>
@@ -11994,7 +12057,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="427" spans="1:5">
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A427" s="2" t="s">
         <v>412</v>
       </c>
@@ -12005,7 +12068,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="428" spans="1:5">
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A428" s="2" t="s">
         <v>413</v>
       </c>
@@ -12016,7 +12079,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="429" spans="1:5">
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A429" s="2" t="s">
         <v>414</v>
       </c>
@@ -12033,7 +12096,7 @@
         <v>1217</v>
       </c>
     </row>
-    <row r="430" spans="1:5">
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" s="2" t="s">
         <v>415</v>
       </c>
@@ -12050,7 +12113,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="431" spans="1:5">
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A431" s="2" t="s">
         <v>416</v>
       </c>
@@ -12067,7 +12130,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="432" spans="1:5">
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A432" s="2" t="s">
         <v>417</v>
       </c>
@@ -12084,7 +12147,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="433" spans="1:5">
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A433" s="2" t="s">
         <v>418</v>
       </c>
@@ -12101,7 +12164,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="434" spans="1:5">
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A434" s="2" t="s">
         <v>419</v>
       </c>
@@ -12115,7 +12178,7 @@
         <v>1226</v>
       </c>
     </row>
-    <row r="435" spans="1:5">
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A435" s="2" t="s">
         <v>420</v>
       </c>
@@ -12132,7 +12195,7 @@
         <v>1220</v>
       </c>
     </row>
-    <row r="436" spans="1:5">
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A436" s="2" t="s">
         <v>421</v>
       </c>
@@ -12149,7 +12212,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="437" spans="1:5">
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A437" s="2" t="s">
         <v>422</v>
       </c>
@@ -12166,7 +12229,7 @@
         <v>1228</v>
       </c>
     </row>
-    <row r="438" spans="1:5">
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A438" s="2" t="s">
         <v>423</v>
       </c>
@@ -12183,7 +12246,7 @@
         <v>1229</v>
       </c>
     </row>
-    <row r="439" spans="1:5">
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A439" s="2" t="s">
         <v>429</v>
       </c>
@@ -12200,7 +12263,7 @@
         <v>1218</v>
       </c>
     </row>
-    <row r="440" spans="1:5">
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" s="2" t="s">
         <v>430</v>
       </c>
@@ -12217,7 +12280,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="441" spans="1:5">
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" s="2" t="s">
         <v>431</v>
       </c>
@@ -12234,7 +12297,7 @@
         <v>1224</v>
       </c>
     </row>
-    <row r="442" spans="1:5">
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A442" s="2" t="s">
         <v>432</v>
       </c>
@@ -12248,7 +12311,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="443" spans="1:5">
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" s="2" t="s">
         <v>1633</v>
       </c>
@@ -12262,7 +12325,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="444" spans="1:5">
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A444" s="2" t="s">
         <v>1634</v>
       </c>
@@ -12276,7 +12339,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="445" spans="1:5">
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A445" s="2" t="s">
         <v>402</v>
       </c>
@@ -12290,11 +12353,13 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="446" spans="1:5">
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A446" s="2" t="s">
         <v>1635</v>
       </c>
-      <c r="B446" s="4"/>
+      <c r="B446" s="2" t="s">
+        <v>910</v>
+      </c>
       <c r="C446" s="2">
         <v>29</v>
       </c>
@@ -12305,7 +12370,7 @@
         <v>1223</v>
       </c>
     </row>
-    <row r="447" spans="1:5">
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A447" s="2" t="s">
         <v>424</v>
       </c>
@@ -12319,11 +12384,13 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="448" spans="1:5">
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A448" s="2" t="s">
         <v>1636</v>
       </c>
-      <c r="B448" s="4"/>
+      <c r="B448" s="4" t="s">
+        <v>1652</v>
+      </c>
       <c r="C448" s="2">
         <v>29</v>
       </c>
@@ -12331,7 +12398,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="449" spans="1:5">
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A449" s="2" t="s">
         <v>425</v>
       </c>
@@ -12345,7 +12412,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="450" spans="1:5">
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" s="2" t="s">
         <v>1627</v>
       </c>
@@ -12359,7 +12426,7 @@
         <v>1231</v>
       </c>
     </row>
-    <row r="451" spans="1:5">
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A451" s="2" t="s">
         <v>426</v>
       </c>
@@ -12373,7 +12440,7 @@
         <v>1232</v>
       </c>
     </row>
-    <row r="452" spans="1:5">
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A452" s="2" t="s">
         <v>427</v>
       </c>
@@ -12387,7 +12454,7 @@
         <v>1233</v>
       </c>
     </row>
-    <row r="453" spans="1:5">
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A453" s="2" t="s">
         <v>428</v>
       </c>
@@ -12401,11 +12468,13 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="454" spans="1:5">
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A454" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="B454" s="4"/>
+      <c r="B454" s="4" t="s">
+        <v>1652</v>
+      </c>
       <c r="C454" s="2">
         <v>29</v>
       </c>
@@ -12413,7 +12482,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="455" spans="1:5">
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A455" s="2" t="s">
         <v>434</v>
       </c>
@@ -12430,7 +12499,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="456" spans="1:5">
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A456" s="2" t="s">
         <v>435</v>
       </c>
@@ -12444,7 +12513,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="457" spans="1:5">
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A457" s="2" t="s">
         <v>436</v>
       </c>
@@ -12458,7 +12527,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="458" spans="1:5">
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A458" s="2" t="s">
         <v>437</v>
       </c>
@@ -12472,7 +12541,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="459" spans="1:5">
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A459" s="2" t="s">
         <v>438</v>
       </c>
@@ -12489,7 +12558,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="460" spans="1:5">
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" s="2" t="s">
         <v>439</v>
       </c>
@@ -12506,7 +12575,7 @@
         <v>1241</v>
       </c>
     </row>
-    <row r="461" spans="1:5">
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A461" s="2" t="s">
         <v>443</v>
       </c>
@@ -12523,7 +12592,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="462" spans="1:5">
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A462" s="2" t="s">
         <v>444</v>
       </c>
@@ -12537,7 +12606,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="463" spans="1:5">
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A463" s="2" t="s">
         <v>445</v>
       </c>
@@ -12551,7 +12620,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="464" spans="1:5">
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" s="2" t="s">
         <v>446</v>
       </c>
@@ -12568,7 +12637,7 @@
         <v>1247</v>
       </c>
     </row>
-    <row r="465" spans="1:5">
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="2" t="s">
         <v>441</v>
       </c>
@@ -12582,7 +12651,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="466" spans="1:5">
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A466" s="2" t="s">
         <v>442</v>
       </c>
@@ -12599,7 +12668,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="467" spans="1:5">
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A467" s="2" t="s">
         <v>447</v>
       </c>
@@ -12616,7 +12685,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="468" spans="1:5">
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A468" s="2" t="s">
         <v>448</v>
       </c>
@@ -12630,7 +12699,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="469" spans="1:5">
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A469" s="2" t="s">
         <v>449</v>
       </c>
@@ -12644,7 +12713,7 @@
         <v>1250</v>
       </c>
     </row>
-    <row r="470" spans="1:5">
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A470" s="2" t="s">
         <v>450</v>
       </c>
@@ -12658,7 +12727,7 @@
         <v>1243</v>
       </c>
     </row>
-    <row r="471" spans="1:5">
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A471" s="2" t="s">
         <v>440</v>
       </c>
@@ -12675,11 +12744,13 @@
         <v>1242</v>
       </c>
     </row>
-    <row r="472" spans="1:5">
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="B472" s="4"/>
+      <c r="B472" s="4" t="s">
+        <v>1654</v>
+      </c>
       <c r="C472" s="2">
         <v>30</v>
       </c>
@@ -12687,7 +12758,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="473" spans="1:5">
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A473" s="2" t="s">
         <v>452</v>
       </c>
@@ -12696,7 +12767,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="474" spans="1:5">
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A474" s="2" t="s">
         <v>453</v>
       </c>
@@ -12705,7 +12776,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="475" spans="1:5">
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A475" s="2" t="s">
         <v>454</v>
       </c>
@@ -12722,7 +12793,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="476" spans="1:5">
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A476" s="2" t="s">
         <v>455</v>
       </c>
@@ -12739,7 +12810,7 @@
         <v>1251</v>
       </c>
     </row>
-    <row r="477" spans="1:5">
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A477" s="2" t="s">
         <v>456</v>
       </c>
@@ -12756,7 +12827,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="478" spans="1:5">
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A478" s="2" t="s">
         <v>457</v>
       </c>
@@ -12773,7 +12844,7 @@
         <v>1253</v>
       </c>
     </row>
-    <row r="479" spans="1:5">
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A479" s="2" t="s">
         <v>458</v>
       </c>
@@ -12787,7 +12858,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="480" spans="1:5">
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A480" s="2" t="s">
         <v>459</v>
       </c>
@@ -12798,7 +12869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="481" spans="1:5">
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A481" s="2" t="s">
         <v>460</v>
       </c>
@@ -12815,7 +12886,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="482" spans="1:5">
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A482" s="2" t="s">
         <v>461</v>
       </c>
@@ -12829,7 +12900,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="483" spans="1:5">
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A483" s="2" t="s">
         <v>462</v>
       </c>
@@ -12843,7 +12914,7 @@
         <v>1256</v>
       </c>
     </row>
-    <row r="484" spans="1:5">
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" s="2" t="s">
         <v>463</v>
       </c>
@@ -12860,7 +12931,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="485" spans="1:5">
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A485" s="2" t="s">
         <v>464</v>
       </c>
@@ -12874,7 +12945,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="486" spans="1:5">
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A486" s="2" t="s">
         <v>465</v>
       </c>
@@ -12891,7 +12962,7 @@
         <v>1259</v>
       </c>
     </row>
-    <row r="487" spans="1:5">
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A487" s="2" t="s">
         <v>466</v>
       </c>
@@ -12905,7 +12976,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="488" spans="1:5">
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A488" s="2" t="s">
         <v>467</v>
       </c>
@@ -12919,7 +12990,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="489" spans="1:5">
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A489" s="2" t="s">
         <v>468</v>
       </c>
@@ -12933,7 +13004,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="490" spans="1:5">
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A490" s="2" t="s">
         <v>469</v>
       </c>
@@ -12947,7 +13018,7 @@
         <v>1262</v>
       </c>
     </row>
-    <row r="491" spans="1:5">
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A491" s="2" t="s">
         <v>472</v>
       </c>
@@ -12964,7 +13035,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="492" spans="1:5">
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A492" s="2" t="s">
         <v>473</v>
       </c>
@@ -12981,7 +13052,7 @@
         <v>1265</v>
       </c>
     </row>
-    <row r="493" spans="1:5">
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A493" s="2" t="s">
         <v>474</v>
       </c>
@@ -12995,7 +13066,7 @@
         <v>1266</v>
       </c>
     </row>
-    <row r="494" spans="1:5">
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A494" s="2" t="s">
         <v>475</v>
       </c>
@@ -13009,7 +13080,7 @@
         <v>1267</v>
       </c>
     </row>
-    <row r="495" spans="1:5">
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A495" s="2" t="s">
         <v>476</v>
       </c>
@@ -13026,7 +13097,7 @@
         <v>1268</v>
       </c>
     </row>
-    <row r="496" spans="1:5">
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A496" s="2" t="s">
         <v>477</v>
       </c>
@@ -13043,7 +13114,7 @@
         <v>1257</v>
       </c>
     </row>
-    <row r="497" spans="1:5">
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A497" s="2" t="s">
         <v>478</v>
       </c>
@@ -13060,7 +13131,7 @@
         <v>1269</v>
       </c>
     </row>
-    <row r="498" spans="1:5">
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A498" s="2" t="s">
         <v>479</v>
       </c>
@@ -13074,7 +13145,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="499" spans="1:5">
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" s="2" t="s">
         <v>480</v>
       </c>
@@ -13088,7 +13159,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="500" spans="1:5">
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A500" s="2" t="s">
         <v>481</v>
       </c>
@@ -13105,7 +13176,7 @@
         <v>1272</v>
       </c>
     </row>
-    <row r="501" spans="1:5">
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A501" s="2" t="s">
         <v>482</v>
       </c>
@@ -13122,7 +13193,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="502" spans="1:5">
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A502" s="2" t="s">
         <v>1626</v>
       </c>
@@ -13133,7 +13204,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="503" spans="1:5">
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A503" s="2" t="s">
         <v>470</v>
       </c>
@@ -13147,7 +13218,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="504" spans="1:5">
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A504" s="2" t="s">
         <v>471</v>
       </c>
@@ -13162,7 +13233,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="505" spans="1:5">
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A505" s="2" t="s">
         <v>1588</v>
       </c>
@@ -13176,7 +13247,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="506" spans="1:5">
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A506" s="2" t="s">
         <v>483</v>
       </c>
@@ -13190,7 +13261,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="507" spans="1:5">
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A507" s="2" t="s">
         <v>484</v>
       </c>
@@ -13204,7 +13275,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="508" spans="1:5">
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A508" s="2" t="s">
         <v>485</v>
       </c>
@@ -13218,7 +13289,7 @@
         <v>1276</v>
       </c>
     </row>
-    <row r="509" spans="1:5">
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A509" s="2" t="s">
         <v>486</v>
       </c>
@@ -13235,7 +13306,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="510" spans="1:5">
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="2" t="s">
         <v>487</v>
       </c>
@@ -13252,7 +13323,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="511" spans="1:5">
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A511" s="2" t="s">
         <v>488</v>
       </c>
@@ -13269,7 +13340,7 @@
         <v>1278</v>
       </c>
     </row>
-    <row r="512" spans="1:5">
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A512" s="2" t="s">
         <v>489</v>
       </c>
@@ -13283,7 +13354,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="513" spans="1:5">
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="2" t="s">
         <v>490</v>
       </c>
@@ -13294,7 +13365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="514" spans="1:5">
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A514" s="2" t="s">
         <v>491</v>
       </c>
@@ -13305,7 +13376,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="515" spans="1:5">
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A515" s="2" t="s">
         <v>492</v>
       </c>
@@ -13319,7 +13390,7 @@
         <v>1277</v>
       </c>
     </row>
-    <row r="516" spans="1:5">
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A516" s="2" t="s">
         <v>493</v>
       </c>
@@ -13330,7 +13401,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="517" spans="1:5">
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="2" t="s">
         <v>494</v>
       </c>
@@ -13341,7 +13412,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="518" spans="1:5">
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A518" s="2" t="s">
         <v>495</v>
       </c>
@@ -13352,7 +13423,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="519" spans="1:5">
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A519" s="2" t="s">
         <v>496</v>
       </c>
@@ -13363,7 +13434,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="520" spans="1:5">
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A520" s="2" t="s">
         <v>500</v>
       </c>
@@ -13380,7 +13451,7 @@
         <v>1280</v>
       </c>
     </row>
-    <row r="521" spans="1:5">
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A521" s="2" t="s">
         <v>501</v>
       </c>
@@ -13394,7 +13465,7 @@
         <v>1281</v>
       </c>
     </row>
-    <row r="522" spans="1:5">
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" s="2" t="s">
         <v>502</v>
       </c>
@@ -13408,7 +13479,7 @@
         <v>1282</v>
       </c>
     </row>
-    <row r="523" spans="1:5">
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A523" s="2" t="s">
         <v>503</v>
       </c>
@@ -13422,7 +13493,7 @@
         <v>1283</v>
       </c>
     </row>
-    <row r="524" spans="1:5">
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A524" s="2" t="s">
         <v>504</v>
       </c>
@@ -13436,7 +13507,7 @@
         <v>1284</v>
       </c>
     </row>
-    <row r="525" spans="1:5">
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A525" s="2" t="s">
         <v>505</v>
       </c>
@@ -13450,7 +13521,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="526" spans="1:5">
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A526" s="2" t="s">
         <v>506</v>
       </c>
@@ -13464,7 +13535,7 @@
         <v>1286</v>
       </c>
     </row>
-    <row r="527" spans="1:5">
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" s="2" t="s">
         <v>507</v>
       </c>
@@ -13481,7 +13552,7 @@
         <v>1285</v>
       </c>
     </row>
-    <row r="528" spans="1:5">
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A528" s="2" t="s">
         <v>508</v>
       </c>
@@ -13495,7 +13566,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="529" spans="1:5">
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A529" s="2" t="s">
         <v>497</v>
       </c>
@@ -13512,7 +13583,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="530" spans="1:5">
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A530" s="2" t="s">
         <v>498</v>
       </c>
@@ -13529,7 +13600,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="531" spans="1:5">
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A531" s="2" t="s">
         <v>499</v>
       </c>
@@ -13543,7 +13614,7 @@
         <v>1279</v>
       </c>
     </row>
-    <row r="532" spans="1:5">
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A532" s="2" t="s">
         <v>509</v>
       </c>
@@ -13560,7 +13631,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="533" spans="1:5">
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A533" s="2" t="s">
         <v>510</v>
       </c>
@@ -13574,7 +13645,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="534" spans="1:5">
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A534" s="2" t="s">
         <v>511</v>
       </c>
@@ -13591,7 +13662,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="535" spans="1:5">
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A535" s="2" t="s">
         <v>512</v>
       </c>
@@ -13605,7 +13676,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="536" spans="1:5">
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A536" s="2" t="s">
         <v>513</v>
       </c>
@@ -13614,7 +13685,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="537" spans="1:5">
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A537" s="2" t="s">
         <v>514</v>
       </c>
@@ -13626,7 +13697,7 @@
         <v>1292</v>
       </c>
     </row>
-    <row r="538" spans="1:5">
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A538" s="2" t="s">
         <v>518</v>
       </c>
@@ -13643,7 +13714,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="539" spans="1:5">
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A539" s="2" t="s">
         <v>519</v>
       </c>
@@ -13657,7 +13728,7 @@
         <v>1150</v>
       </c>
     </row>
-    <row r="540" spans="1:5">
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A540" s="2" t="s">
         <v>520</v>
       </c>
@@ -13674,7 +13745,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="541" spans="1:5">
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" s="2" t="s">
         <v>521</v>
       </c>
@@ -13688,7 +13759,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="542" spans="1:5">
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A542" s="2" t="s">
         <v>523</v>
       </c>
@@ -13702,7 +13773,7 @@
         <v>1298</v>
       </c>
     </row>
-    <row r="543" spans="1:5">
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" s="2" t="s">
         <v>524</v>
       </c>
@@ -13716,7 +13787,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="544" spans="1:5">
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A544" s="2" t="s">
         <v>525</v>
       </c>
@@ -13730,7 +13801,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="545" spans="1:5">
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A545" s="2" t="s">
         <v>526</v>
       </c>
@@ -13744,7 +13815,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="546" spans="1:5">
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A546" s="2" t="s">
         <v>527</v>
       </c>
@@ -13758,7 +13829,7 @@
         <v>1301</v>
       </c>
     </row>
-    <row r="547" spans="1:5">
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A547" s="2" t="s">
         <v>528</v>
       </c>
@@ -13772,7 +13843,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="548" spans="1:5">
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A548" s="2" t="s">
         <v>529</v>
       </c>
@@ -13786,7 +13857,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="549" spans="1:5">
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A549" s="2" t="s">
         <v>530</v>
       </c>
@@ -13800,7 +13871,7 @@
         <v>1304</v>
       </c>
     </row>
-    <row r="550" spans="1:5">
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A550" s="2" t="s">
         <v>531</v>
       </c>
@@ -13814,7 +13885,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="551" spans="1:5">
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A551" s="2" t="s">
         <v>516</v>
       </c>
@@ -13831,7 +13902,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="552" spans="1:5">
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A552" s="2" t="s">
         <v>522</v>
       </c>
@@ -13848,7 +13919,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="553" spans="1:5">
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A553" s="2" t="s">
         <v>515</v>
       </c>
@@ -13865,7 +13936,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="554" spans="1:5">
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A554" s="2" t="s">
         <v>517</v>
       </c>
@@ -13882,7 +13953,7 @@
         <v>1293</v>
       </c>
     </row>
-    <row r="555" spans="1:5">
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A555" s="2" t="s">
         <v>532</v>
       </c>
@@ -13899,7 +13970,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="556" spans="1:5">
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A556" s="2" t="s">
         <v>533</v>
       </c>
@@ -13916,7 +13987,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="557" spans="1:5">
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A557" s="2" t="s">
         <v>534</v>
       </c>
@@ -13930,7 +14001,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="558" spans="1:5">
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" s="2" t="s">
         <v>535</v>
       </c>
@@ -13947,7 +14018,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="559" spans="1:5">
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A559" s="2" t="s">
         <v>536</v>
       </c>
@@ -13958,7 +14029,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="560" spans="1:5">
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A560" s="2" t="s">
         <v>537</v>
       </c>
@@ -13972,7 +14043,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="561" spans="1:5">
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="2" t="s">
         <v>538</v>
       </c>
@@ -13986,7 +14057,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="562" spans="1:5">
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A562" s="2" t="s">
         <v>539</v>
       </c>
@@ -14000,7 +14071,7 @@
         <v>1310</v>
       </c>
     </row>
-    <row r="563" spans="1:5">
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A563" s="2" t="s">
         <v>540</v>
       </c>
@@ -14011,7 +14082,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="564" spans="1:5">
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A564" s="2" t="s">
         <v>541</v>
       </c>
@@ -14025,7 +14096,7 @@
         <v>1311</v>
       </c>
     </row>
-    <row r="565" spans="1:5">
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A565" s="2" t="s">
         <v>542</v>
       </c>
@@ -14039,7 +14110,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="566" spans="1:5">
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="2" t="s">
         <v>543</v>
       </c>
@@ -14053,7 +14124,7 @@
         <v>1312</v>
       </c>
     </row>
-    <row r="567" spans="1:5">
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A567" s="2" t="s">
         <v>544</v>
       </c>
@@ -14064,7 +14135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="568" spans="1:5">
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A568" s="2" t="s">
         <v>545</v>
       </c>
@@ -14081,7 +14152,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="569" spans="1:5">
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A569" s="2" t="s">
         <v>546</v>
       </c>
@@ -14092,7 +14163,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="570" spans="1:5">
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A570" s="2" t="s">
         <v>547</v>
       </c>
@@ -14103,7 +14174,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="571" spans="1:5">
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A571" s="2" t="s">
         <v>548</v>
       </c>
@@ -14117,7 +14188,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="572" spans="1:5">
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A572" s="2" t="s">
         <v>549</v>
       </c>
@@ -14131,7 +14202,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="573" spans="1:5">
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A573" s="2" t="s">
         <v>550</v>
       </c>
@@ -14148,7 +14219,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="574" spans="1:5">
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A574" s="2" t="s">
         <v>551</v>
       </c>
@@ -14159,7 +14230,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="575" spans="1:5">
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A575" s="2" t="s">
         <v>552</v>
       </c>
@@ -14176,7 +14247,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="576" spans="1:5">
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A576" s="2" t="s">
         <v>553</v>
       </c>
@@ -14190,7 +14261,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="577" spans="1:5">
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A577" s="2" t="s">
         <v>554</v>
       </c>
@@ -14207,7 +14278,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="578" spans="1:5">
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A578" s="2" t="s">
         <v>555</v>
       </c>
@@ -14224,7 +14295,7 @@
         <v>1317</v>
       </c>
     </row>
-    <row r="579" spans="1:5">
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A579" s="2" t="s">
         <v>556</v>
       </c>
@@ -14241,7 +14312,7 @@
         <v>1316</v>
       </c>
     </row>
-    <row r="580" spans="1:5">
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A580" s="2" t="s">
         <v>557</v>
       </c>
@@ -14258,7 +14329,7 @@
         <v>1318</v>
       </c>
     </row>
-    <row r="581" spans="1:5">
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" s="2" t="s">
         <v>558</v>
       </c>
@@ -14275,7 +14346,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="582" spans="1:5">
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A582" s="2" t="s">
         <v>559</v>
       </c>
@@ -14292,7 +14363,7 @@
         <v>1320</v>
       </c>
     </row>
-    <row r="583" spans="1:5">
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A583" s="2" t="s">
         <v>560</v>
       </c>
@@ -14306,7 +14377,7 @@
         <v>1319</v>
       </c>
     </row>
-    <row r="584" spans="1:5">
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A584" s="2" t="s">
         <v>561</v>
       </c>
@@ -14323,7 +14394,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="585" spans="1:5">
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A585" s="2" t="s">
         <v>562</v>
       </c>
@@ -14340,7 +14411,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="586" spans="1:5">
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A586" s="2" t="s">
         <v>563</v>
       </c>
@@ -14354,7 +14425,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="587" spans="1:5">
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A587" s="2" t="s">
         <v>564</v>
       </c>
@@ -14371,7 +14442,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="588" spans="1:5">
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" s="2" t="s">
         <v>565</v>
       </c>
@@ -14385,7 +14456,7 @@
         <v>1322</v>
       </c>
     </row>
-    <row r="589" spans="1:5">
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A589" s="2" t="s">
         <v>566</v>
       </c>
@@ -14399,7 +14470,7 @@
         <v>1219</v>
       </c>
     </row>
-    <row r="590" spans="1:5">
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" s="2" t="s">
         <v>567</v>
       </c>
@@ -14413,7 +14484,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="591" spans="1:5">
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A591" s="2" t="s">
         <v>569</v>
       </c>
@@ -14424,7 +14495,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="592" spans="1:5">
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A592" s="2" t="s">
         <v>1595</v>
       </c>
@@ -14435,7 +14506,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="593" spans="1:5">
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" s="2" t="s">
         <v>568</v>
       </c>
@@ -14452,7 +14523,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="594" spans="1:5">
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A594" s="2" t="s">
         <v>1597</v>
       </c>
@@ -14463,7 +14534,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="595" spans="1:5">
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A595" s="2" t="s">
         <v>570</v>
       </c>
@@ -14477,7 +14548,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="596" spans="1:5">
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A596" s="2" t="s">
         <v>571</v>
       </c>
@@ -14488,7 +14559,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="597" spans="1:5">
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A597" s="2" t="s">
         <v>572</v>
       </c>
@@ -14502,7 +14573,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="598" spans="1:5">
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A598" s="2" t="s">
         <v>573</v>
       </c>
@@ -14519,7 +14590,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="599" spans="1:5">
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A599" s="2" t="s">
         <v>574</v>
       </c>
@@ -14536,7 +14607,7 @@
         <v>1327</v>
       </c>
     </row>
-    <row r="600" spans="1:5">
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A600" s="2" t="s">
         <v>575</v>
       </c>
@@ -14550,7 +14621,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="601" spans="1:5">
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A601" s="2" t="s">
         <v>576</v>
       </c>
@@ -14564,7 +14635,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="602" spans="1:5">
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" s="2" t="s">
         <v>577</v>
       </c>
@@ -14581,7 +14652,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="603" spans="1:5">
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" s="2" t="s">
         <v>578</v>
       </c>
@@ -14595,7 +14666,7 @@
         <v>1329</v>
       </c>
     </row>
-    <row r="604" spans="1:5">
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A604" s="2" t="s">
         <v>1589</v>
       </c>
@@ -14612,7 +14683,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="605" spans="1:5">
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A605" s="2" t="s">
         <v>579</v>
       </c>
@@ -14623,7 +14694,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="606" spans="1:5">
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" s="2" t="s">
         <v>580</v>
       </c>
@@ -14640,7 +14711,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="607" spans="1:5">
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A607" s="2" t="s">
         <v>581</v>
       </c>
@@ -14651,7 +14722,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="608" spans="1:5">
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A608" s="2" t="s">
         <v>582</v>
       </c>
@@ -14665,7 +14736,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="609" spans="1:5">
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A609" s="2" t="s">
         <v>583</v>
       </c>
@@ -14679,7 +14750,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="610" spans="1:5">
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A610" s="2" t="s">
         <v>584</v>
       </c>
@@ -14693,7 +14764,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="611" spans="1:5">
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A611" s="2" t="s">
         <v>585</v>
       </c>
@@ -14710,7 +14781,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="612" spans="1:5">
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A612" s="2" t="s">
         <v>586</v>
       </c>
@@ -14724,7 +14795,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="613" spans="1:5">
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A613" s="2" t="s">
         <v>587</v>
       </c>
@@ -14741,7 +14812,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="614" spans="1:5">
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A614" s="2" t="s">
         <v>588</v>
       </c>
@@ -14755,7 +14826,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="615" spans="1:5">
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A615" s="2" t="s">
         <v>589</v>
       </c>
@@ -14769,7 +14840,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="616" spans="1:5">
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A616" s="2" t="s">
         <v>590</v>
       </c>
@@ -14783,7 +14854,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="617" spans="1:5">
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A617" s="2" t="s">
         <v>591</v>
       </c>
@@ -14797,7 +14868,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="618" spans="1:5">
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A618" s="2" t="s">
         <v>592</v>
       </c>
@@ -14811,7 +14882,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="619" spans="1:5">
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A619" s="2" t="s">
         <v>593</v>
       </c>
@@ -14825,7 +14896,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="620" spans="1:5">
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A620" s="2" t="s">
         <v>594</v>
       </c>
@@ -14839,7 +14910,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="621" spans="1:5">
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A621" s="2" t="s">
         <v>595</v>
       </c>
@@ -14856,7 +14927,7 @@
         <v>1339</v>
       </c>
     </row>
-    <row r="622" spans="1:5">
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A622" s="2" t="s">
         <v>596</v>
       </c>
@@ -14870,7 +14941,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="623" spans="1:5">
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A623" s="2" t="s">
         <v>598</v>
       </c>
@@ -14887,7 +14958,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="624" spans="1:5">
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" s="2" t="s">
         <v>597</v>
       </c>
@@ -14896,7 +14967,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="625" spans="1:5">
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A625" s="2" t="s">
         <v>599</v>
       </c>
@@ -14905,7 +14976,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="626" spans="1:5">
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A626" s="2" t="s">
         <v>600</v>
       </c>
@@ -14914,7 +14985,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="627" spans="1:5">
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A627" s="2" t="s">
         <v>605</v>
       </c>
@@ -14931,7 +15002,7 @@
         <v>1343</v>
       </c>
     </row>
-    <row r="628" spans="1:5">
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A628" s="2" t="s">
         <v>606</v>
       </c>
@@ -14948,7 +15019,7 @@
         <v>1344</v>
       </c>
     </row>
-    <row r="629" spans="1:5">
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A629" s="2" t="s">
         <v>607</v>
       </c>
@@ -14965,7 +15036,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="630" spans="1:5">
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A630" s="2" t="s">
         <v>608</v>
       </c>
@@ -14979,7 +15050,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="631" spans="1:5">
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A631" s="2" t="s">
         <v>601</v>
       </c>
@@ -14994,7 +15065,7 @@
         <v>1342</v>
       </c>
     </row>
-    <row r="632" spans="1:5">
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A632" s="2" t="s">
         <v>602</v>
       </c>
@@ -15003,7 +15074,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="633" spans="1:5">
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A633" s="2" t="s">
         <v>603</v>
       </c>
@@ -15015,7 +15086,7 @@
         <v>1069</v>
       </c>
     </row>
-    <row r="634" spans="1:5">
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A634" s="2" t="s">
         <v>604</v>
       </c>
@@ -15030,7 +15101,7 @@
         <v>1003</v>
       </c>
     </row>
-    <row r="635" spans="1:5">
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A635" s="2" t="s">
         <v>610</v>
       </c>
@@ -15044,7 +15115,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="636" spans="1:5">
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A636" s="2" t="s">
         <v>611</v>
       </c>
@@ -15058,7 +15129,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="637" spans="1:5">
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A637" s="2" t="s">
         <v>609</v>
       </c>
@@ -15075,7 +15146,7 @@
         <v>983</v>
       </c>
     </row>
-    <row r="638" spans="1:5">
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A638" s="2" t="s">
         <v>612</v>
       </c>
@@ -15092,7 +15163,7 @@
         <v>1197</v>
       </c>
     </row>
-    <row r="639" spans="1:5">
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A639" s="2" t="s">
         <v>613</v>
       </c>
@@ -15109,7 +15180,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="640" spans="1:5">
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A640" s="2" t="s">
         <v>614</v>
       </c>
@@ -15123,7 +15194,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="641" spans="1:5">
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A641" s="2" t="s">
         <v>615</v>
       </c>
@@ -15137,7 +15208,7 @@
         <v>1350</v>
       </c>
     </row>
-    <row r="642" spans="1:5">
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A642" s="2" t="s">
         <v>616</v>
       </c>
@@ -15154,7 +15225,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="643" spans="1:5">
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A643" s="2" t="s">
         <v>617</v>
       </c>
@@ -15171,7 +15242,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="644" spans="1:5">
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A644" s="2" t="s">
         <v>618</v>
       </c>
@@ -15185,7 +15256,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="645" spans="1:5">
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A645" s="2" t="s">
         <v>619</v>
       </c>
@@ -15202,7 +15273,7 @@
         <v>1352</v>
       </c>
     </row>
-    <row r="646" spans="1:5">
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A646" s="2" t="s">
         <v>620</v>
       </c>
@@ -15216,7 +15287,7 @@
         <v>1353</v>
       </c>
     </row>
-    <row r="647" spans="1:5">
+    <row r="647" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A647" s="2" t="s">
         <v>621</v>
       </c>
@@ -15233,7 +15304,7 @@
         <v>1354</v>
       </c>
     </row>
-    <row r="648" spans="1:5">
+    <row r="648" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A648" s="2" t="s">
         <v>622</v>
       </c>
@@ -15250,7 +15321,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="649" spans="1:5">
+    <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" s="2" t="s">
         <v>623</v>
       </c>
@@ -15267,7 +15338,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="650" spans="1:5">
+    <row r="650" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A650" s="2" t="s">
         <v>624</v>
       </c>
@@ -15284,7 +15355,7 @@
         <v>1356</v>
       </c>
     </row>
-    <row r="651" spans="1:5">
+    <row r="651" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A651" s="2" t="s">
         <v>1571</v>
       </c>
@@ -15295,7 +15366,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="652" spans="1:5">
+    <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" s="2" t="s">
         <v>625</v>
       </c>
@@ -15309,7 +15380,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="653" spans="1:5">
+    <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" s="2" t="s">
         <v>626</v>
       </c>
@@ -15326,7 +15397,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="654" spans="1:5">
+    <row r="654" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A654" s="2" t="s">
         <v>627</v>
       </c>
@@ -15340,7 +15411,7 @@
         <v>1015</v>
       </c>
     </row>
-    <row r="655" spans="1:5">
+    <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" s="2" t="s">
         <v>628</v>
       </c>
@@ -15357,7 +15428,7 @@
         <v>1359</v>
       </c>
     </row>
-    <row r="656" spans="1:5">
+    <row r="656" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A656" s="2" t="s">
         <v>629</v>
       </c>
@@ -15371,7 +15442,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="657" spans="1:5">
+    <row r="657" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A657" s="2" t="s">
         <v>630</v>
       </c>
@@ -15388,7 +15459,7 @@
         <v>1357</v>
       </c>
     </row>
-    <row r="658" spans="1:5">
+    <row r="658" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A658" s="2" t="s">
         <v>631</v>
       </c>
@@ -15405,7 +15476,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="659" spans="1:5">
+    <row r="659" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A659" s="2" t="s">
         <v>632</v>
       </c>
@@ -15419,7 +15490,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="660" spans="1:5">
+    <row r="660" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A660" s="2" t="s">
         <v>633</v>
       </c>
@@ -15436,7 +15507,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="661" spans="1:5">
+    <row r="661" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A661" s="2" t="s">
         <v>634</v>
       </c>
@@ -15450,7 +15521,7 @@
         <v>1362</v>
       </c>
     </row>
-    <row r="662" spans="1:5">
+    <row r="662" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A662" s="2" t="s">
         <v>635</v>
       </c>
@@ -15464,7 +15535,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="663" spans="1:5">
+    <row r="663" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A663" s="2" t="s">
         <v>636</v>
       </c>
@@ -15478,7 +15549,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="664" spans="1:5">
+    <row r="664" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A664" s="2" t="s">
         <v>637</v>
       </c>
@@ -15492,7 +15563,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="665" spans="1:5">
+    <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" s="2" t="s">
         <v>638</v>
       </c>
@@ -15506,7 +15577,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="666" spans="1:5">
+    <row r="666" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A666" s="2" t="s">
         <v>639</v>
       </c>
@@ -15520,7 +15591,7 @@
         <v>1367</v>
       </c>
     </row>
-    <row r="667" spans="1:5">
+    <row r="667" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A667" s="2" t="s">
         <v>640</v>
       </c>
@@ -15534,7 +15605,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="668" spans="1:5">
+    <row r="668" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A668" s="2" t="s">
         <v>641</v>
       </c>
@@ -15548,7 +15619,7 @@
         <v>1366</v>
       </c>
     </row>
-    <row r="669" spans="1:5">
+    <row r="669" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A669" s="2" t="s">
         <v>1592</v>
       </c>
@@ -15562,7 +15633,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="670" spans="1:5">
+    <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" s="2" t="s">
         <v>642</v>
       </c>
@@ -15576,7 +15647,7 @@
         <v>1369</v>
       </c>
     </row>
-    <row r="671" spans="1:5">
+    <row r="671" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A671" s="2" t="s">
         <v>643</v>
       </c>
@@ -15590,7 +15661,7 @@
         <v>1370</v>
       </c>
     </row>
-    <row r="672" spans="1:5">
+    <row r="672" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A672" s="2" t="s">
         <v>644</v>
       </c>
@@ -15607,7 +15678,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="673" spans="1:5">
+    <row r="673" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A673" s="2" t="s">
         <v>645</v>
       </c>
@@ -15621,7 +15692,7 @@
         <v>1302</v>
       </c>
     </row>
-    <row r="674" spans="1:5">
+    <row r="674" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A674" s="2" t="s">
         <v>646</v>
       </c>
@@ -15638,7 +15709,7 @@
         <v>1372</v>
       </c>
     </row>
-    <row r="675" spans="1:5">
+    <row r="675" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A675" s="2" t="s">
         <v>647</v>
       </c>
@@ -15655,7 +15726,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="676" spans="1:5">
+    <row r="676" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A676" s="2" t="s">
         <v>648</v>
       </c>
@@ -15669,7 +15740,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="677" spans="1:5">
+    <row r="677" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A677" s="2" t="s">
         <v>649</v>
       </c>
@@ -15683,7 +15754,7 @@
         <v>1585</v>
       </c>
     </row>
-    <row r="678" spans="1:5">
+    <row r="678" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A678" s="2" t="s">
         <v>650</v>
       </c>
@@ -15700,7 +15771,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="679" spans="1:5">
+    <row r="679" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A679" s="2" t="s">
         <v>651</v>
       </c>
@@ -15717,7 +15788,7 @@
         <v>1376</v>
       </c>
     </row>
-    <row r="680" spans="1:5">
+    <row r="680" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A680" s="2" t="s">
         <v>652</v>
       </c>
@@ -15731,7 +15802,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="681" spans="1:5">
+    <row r="681" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A681" s="2" t="s">
         <v>653</v>
       </c>
@@ -15748,7 +15819,7 @@
         <v>1378</v>
       </c>
     </row>
-    <row r="682" spans="1:5">
+    <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682" s="2" t="s">
         <v>654</v>
       </c>
@@ -15762,7 +15833,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="683" spans="1:5">
+    <row r="683" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A683" s="2" t="s">
         <v>655</v>
       </c>
@@ -15776,7 +15847,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="684" spans="1:5">
+    <row r="684" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A684" s="2" t="s">
         <v>656</v>
       </c>
@@ -15790,7 +15861,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="685" spans="1:5">
+    <row r="685" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A685" s="2" t="s">
         <v>657</v>
       </c>
@@ -15804,7 +15875,7 @@
         <v>1379</v>
       </c>
     </row>
-    <row r="686" spans="1:5">
+    <row r="686" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A686" s="2" t="s">
         <v>658</v>
       </c>
@@ -15818,7 +15889,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="687" spans="1:5">
+    <row r="687" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A687" s="2" t="s">
         <v>659</v>
       </c>
@@ -15832,7 +15903,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="688" spans="1:5">
+    <row r="688" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A688" s="2" t="s">
         <v>660</v>
       </c>
@@ -15846,7 +15917,7 @@
         <v>1380</v>
       </c>
     </row>
-    <row r="689" spans="1:5">
+    <row r="689" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A689" s="2" t="s">
         <v>661</v>
       </c>
@@ -15860,7 +15931,7 @@
         <v>1377</v>
       </c>
     </row>
-    <row r="690" spans="1:5">
+    <row r="690" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A690" s="2" t="s">
         <v>662</v>
       </c>
@@ -15874,7 +15945,7 @@
         <v>1381</v>
       </c>
     </row>
-    <row r="691" spans="1:5">
+    <row r="691" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A691" s="2" t="s">
         <v>663</v>
       </c>
@@ -15891,7 +15962,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="692" spans="1:5">
+    <row r="692" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A692" s="2" t="s">
         <v>664</v>
       </c>
@@ -15902,7 +15973,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="693" spans="1:5">
+    <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693" s="2" t="s">
         <v>665</v>
       </c>
@@ -15919,7 +15990,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="694" spans="1:5">
+    <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" s="2" t="s">
         <v>666</v>
       </c>
@@ -15933,7 +16004,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="695" spans="1:5">
+    <row r="695" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A695" s="2" t="s">
         <v>667</v>
       </c>
@@ -15950,7 +16021,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="696" spans="1:5">
+    <row r="696" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A696" s="2" t="s">
         <v>668</v>
       </c>
@@ -15967,7 +16038,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="697" spans="1:5">
+    <row r="697" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A697" s="2" t="s">
         <v>669</v>
       </c>
@@ -15981,7 +16052,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="698" spans="1:5">
+    <row r="698" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A698" s="2" t="s">
         <v>670</v>
       </c>
@@ -15995,7 +16066,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="699" spans="1:5">
+    <row r="699" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A699" s="2" t="s">
         <v>671</v>
       </c>
@@ -16009,7 +16080,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="700" spans="1:5">
+    <row r="700" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A700" s="2" t="s">
         <v>672</v>
       </c>
@@ -16023,7 +16094,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="701" spans="1:5">
+    <row r="701" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A701" s="2" t="s">
         <v>673</v>
       </c>
@@ -16037,7 +16108,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="702" spans="1:5">
+    <row r="702" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A702" s="2" t="s">
         <v>674</v>
       </c>
@@ -16051,7 +16122,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="703" spans="1:5">
+    <row r="703" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A703" s="2" t="s">
         <v>675</v>
       </c>
@@ -16065,7 +16136,7 @@
         <v>1221</v>
       </c>
     </row>
-    <row r="704" spans="1:5">
+    <row r="704" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A704" s="2" t="s">
         <v>676</v>
       </c>
@@ -16079,7 +16150,7 @@
         <v>1196</v>
       </c>
     </row>
-    <row r="705" spans="1:5">
+    <row r="705" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A705" s="2" t="s">
         <v>677</v>
       </c>
@@ -16093,7 +16164,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="706" spans="1:5">
+    <row r="706" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A706" s="2" t="s">
         <v>678</v>
       </c>
@@ -16110,7 +16181,7 @@
         <v>1389</v>
       </c>
     </row>
-    <row r="707" spans="1:5">
+    <row r="707" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A707" s="2" t="s">
         <v>679</v>
       </c>
@@ -16124,7 +16195,7 @@
         <v>1390</v>
       </c>
     </row>
-    <row r="708" spans="1:5">
+    <row r="708" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A708" s="2" t="s">
         <v>680</v>
       </c>
@@ -16138,7 +16209,7 @@
         <v>1391</v>
       </c>
     </row>
-    <row r="709" spans="1:5">
+    <row r="709" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A709" s="2" t="s">
         <v>681</v>
       </c>
@@ -16152,7 +16223,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="710" spans="1:5">
+    <row r="710" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A710" s="2" t="s">
         <v>682</v>
       </c>
@@ -16166,7 +16237,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="711" spans="1:5">
+    <row r="711" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A711" s="2" t="s">
         <v>683</v>
       </c>
@@ -16180,7 +16251,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="712" spans="1:5">
+    <row r="712" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A712" s="2" t="s">
         <v>684</v>
       </c>
@@ -16194,7 +16265,7 @@
         <v>1394</v>
       </c>
     </row>
-    <row r="713" spans="1:5">
+    <row r="713" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A713" s="2" t="s">
         <v>685</v>
       </c>
@@ -16208,7 +16279,7 @@
         <v>1395</v>
       </c>
     </row>
-    <row r="714" spans="1:5">
+    <row r="714" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A714" s="2" t="s">
         <v>686</v>
       </c>
@@ -16225,7 +16296,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="715" spans="1:5">
+    <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" s="2" t="s">
         <v>687</v>
       </c>
@@ -16239,7 +16310,7 @@
         <v>1397</v>
       </c>
     </row>
-    <row r="716" spans="1:5">
+    <row r="716" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A716" s="2" t="s">
         <v>688</v>
       </c>
@@ -16253,7 +16324,7 @@
         <v>1398</v>
       </c>
     </row>
-    <row r="717" spans="1:5">
+    <row r="717" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A717" s="2" t="s">
         <v>689</v>
       </c>
@@ -16267,7 +16338,7 @@
         <v>1399</v>
       </c>
     </row>
-    <row r="718" spans="1:5">
+    <row r="718" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A718" s="2" t="s">
         <v>690</v>
       </c>
@@ -16281,7 +16352,7 @@
         <v>1400</v>
       </c>
     </row>
-    <row r="719" spans="1:5">
+    <row r="719" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A719" s="2" t="s">
         <v>691</v>
       </c>
@@ -16295,7 +16366,7 @@
         <v>1227</v>
       </c>
     </row>
-    <row r="720" spans="1:5">
+    <row r="720" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A720" s="2" t="s">
         <v>692</v>
       </c>
@@ -16309,7 +16380,7 @@
         <v>1401</v>
       </c>
     </row>
-    <row r="721" spans="1:5">
+    <row r="721" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A721" s="2" t="s">
         <v>693</v>
       </c>
@@ -16323,7 +16394,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="722" spans="1:5">
+    <row r="722" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A722" s="2" t="s">
         <v>694</v>
       </c>
@@ -16337,7 +16408,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="723" spans="1:5">
+    <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" s="2" t="s">
         <v>695</v>
       </c>
@@ -16354,7 +16425,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="724" spans="1:5">
+    <row r="724" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A724" s="2" t="s">
         <v>696</v>
       </c>
@@ -16371,7 +16442,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="725" spans="1:5">
+    <row r="725" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A725" s="2" t="s">
         <v>1625</v>
       </c>
@@ -16385,7 +16456,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="726" spans="1:5">
+    <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" s="2" t="s">
         <v>697</v>
       </c>
@@ -16402,7 +16473,7 @@
         <v>1210</v>
       </c>
     </row>
-    <row r="727" spans="1:5">
+    <row r="727" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A727" s="2" t="s">
         <v>698</v>
       </c>
@@ -16419,7 +16490,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="728" spans="1:5">
+    <row r="728" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A728" s="2" t="s">
         <v>699</v>
       </c>
@@ -16436,7 +16507,7 @@
         <v>1198</v>
       </c>
     </row>
-    <row r="729" spans="1:5">
+    <row r="729" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A729" s="2" t="s">
         <v>700</v>
       </c>
@@ -16453,7 +16524,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="730" spans="1:5">
+    <row r="730" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A730" s="2" t="s">
         <v>701</v>
       </c>
@@ -16470,7 +16541,7 @@
         <v>1408</v>
       </c>
     </row>
-    <row r="731" spans="1:5">
+    <row r="731" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A731" s="2" t="s">
         <v>702</v>
       </c>
@@ -16487,7 +16558,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="732" spans="1:5">
+    <row r="732" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A732" s="2" t="s">
         <v>703</v>
       </c>
@@ -16504,7 +16575,7 @@
         <v>1409</v>
       </c>
     </row>
-    <row r="733" spans="1:5">
+    <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" s="2" t="s">
         <v>1594</v>
       </c>
@@ -16515,7 +16586,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="734" spans="1:5">
+    <row r="734" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A734" s="2" t="s">
         <v>704</v>
       </c>
@@ -16526,7 +16597,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="735" spans="1:5">
+    <row r="735" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A735" s="2" t="s">
         <v>705</v>
       </c>
@@ -16537,7 +16608,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="736" spans="1:5">
+    <row r="736" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A736" s="2" t="s">
         <v>706</v>
       </c>
@@ -16548,7 +16619,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="737" spans="1:5">
+    <row r="737" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A737" s="2" t="s">
         <v>707</v>
       </c>
@@ -16559,7 +16630,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="738" spans="1:5">
+    <row r="738" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A738" s="2" t="s">
         <v>1612</v>
       </c>
@@ -16573,7 +16644,7 @@
         <v>964</v>
       </c>
     </row>
-    <row r="739" spans="1:5">
+    <row r="739" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A739" s="2" t="s">
         <v>708</v>
       </c>
@@ -16584,7 +16655,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="740" spans="1:5">
+    <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" s="2" t="s">
         <v>709</v>
       </c>
@@ -16601,7 +16672,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="741" spans="1:5">
+    <row r="741" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A741" s="2" t="s">
         <v>710</v>
       </c>
@@ -16618,7 +16689,7 @@
         <v>1410</v>
       </c>
     </row>
-    <row r="742" spans="1:5">
+    <row r="742" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A742" s="2" t="s">
         <v>711</v>
       </c>
@@ -16632,7 +16703,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="743" spans="1:5">
+    <row r="743" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A743" s="2" t="s">
         <v>712</v>
       </c>
@@ -16646,7 +16717,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="744" spans="1:5">
+    <row r="744" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A744" s="2" t="s">
         <v>1613</v>
       </c>
@@ -16658,7 +16729,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="745" spans="1:5">
+    <row r="745" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A745" s="2" t="s">
         <v>713</v>
       </c>
@@ -16670,7 +16741,7 @@
         <v>1414</v>
       </c>
     </row>
-    <row r="746" spans="1:5">
+    <row r="746" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A746" s="2" t="s">
         <v>714</v>
       </c>
@@ -16682,7 +16753,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="747" spans="1:5">
+    <row r="747" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A747" s="2" t="s">
         <v>715</v>
       </c>
@@ -16694,7 +16765,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="748" spans="1:5">
+    <row r="748" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A748" s="2" t="s">
         <v>716</v>
       </c>
@@ -16711,7 +16782,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="749" spans="1:5">
+    <row r="749" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A749" s="2" t="s">
         <v>717</v>
       </c>
@@ -16725,7 +16796,7 @@
         <v>1417</v>
       </c>
     </row>
-    <row r="750" spans="1:5">
+    <row r="750" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A750" s="2" t="s">
         <v>718</v>
       </c>
@@ -16742,7 +16813,7 @@
         <v>1418</v>
       </c>
     </row>
-    <row r="751" spans="1:5">
+    <row r="751" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A751" s="2" t="s">
         <v>719</v>
       </c>
@@ -16753,7 +16824,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="752" spans="1:5">
+    <row r="752" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A752" s="2" t="s">
         <v>720</v>
       </c>
@@ -16767,7 +16838,7 @@
         <v>1419</v>
       </c>
     </row>
-    <row r="753" spans="1:5">
+    <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" s="2" t="s">
         <v>721</v>
       </c>
@@ -16781,7 +16852,7 @@
         <v>1420</v>
       </c>
     </row>
-    <row r="754" spans="1:5">
+    <row r="754" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A754" s="2" t="s">
         <v>722</v>
       </c>
@@ -16795,7 +16866,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="755" spans="1:5">
+    <row r="755" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A755" s="2" t="s">
         <v>723</v>
       </c>
@@ -16812,7 +16883,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="756" spans="1:5">
+    <row r="756" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A756" s="2" t="s">
         <v>724</v>
       </c>
@@ -16826,7 +16897,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="757" spans="1:5">
+    <row r="757" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A757" s="2" t="s">
         <v>725</v>
       </c>
@@ -16843,7 +16914,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="758" spans="1:5">
+    <row r="758" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A758" s="2" t="s">
         <v>726</v>
       </c>
@@ -16857,7 +16928,7 @@
         <v>1424</v>
       </c>
     </row>
-    <row r="759" spans="1:5">
+    <row r="759" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A759" s="2" t="s">
         <v>727</v>
       </c>
@@ -16871,7 +16942,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="760" spans="1:5">
+    <row r="760" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A760" s="2" t="s">
         <v>728</v>
       </c>
@@ -16885,7 +16956,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="761" spans="1:5">
+    <row r="761" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A761" s="2" t="s">
         <v>729</v>
       </c>
@@ -16899,7 +16970,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="762" spans="1:5">
+    <row r="762" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A762" s="2" t="s">
         <v>730</v>
       </c>
@@ -16916,7 +16987,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="763" spans="1:5">
+    <row r="763" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A763" s="2" t="s">
         <v>731</v>
       </c>
@@ -16930,7 +17001,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="764" spans="1:5">
+    <row r="764" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A764" s="2" t="s">
         <v>732</v>
       </c>
@@ -16944,7 +17015,7 @@
         <v>957</v>
       </c>
     </row>
-    <row r="765" spans="1:5">
+    <row r="765" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A765" s="2" t="s">
         <v>733</v>
       </c>
@@ -16958,7 +17029,7 @@
         <v>1428</v>
       </c>
     </row>
-    <row r="766" spans="1:5">
+    <row r="766" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A766" s="2" t="s">
         <v>734</v>
       </c>
@@ -16975,7 +17046,7 @@
         <v>1429</v>
       </c>
     </row>
-    <row r="767" spans="1:5">
+    <row r="767" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A767" s="2" t="s">
         <v>747</v>
       </c>
@@ -16989,7 +17060,7 @@
         <v>1439</v>
       </c>
     </row>
-    <row r="768" spans="1:5">
+    <row r="768" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A768" s="2" t="s">
         <v>750</v>
       </c>
@@ -17003,7 +17074,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="769" spans="1:5">
+    <row r="769" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A769" s="2" t="s">
         <v>751</v>
       </c>
@@ -17017,7 +17088,7 @@
         <v>1442</v>
       </c>
     </row>
-    <row r="770" spans="1:5">
+    <row r="770" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A770" s="2" t="s">
         <v>1599</v>
       </c>
@@ -17034,7 +17105,7 @@
         <v>1326</v>
       </c>
     </row>
-    <row r="771" spans="1:5">
+    <row r="771" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A771" s="2" t="s">
         <v>752</v>
       </c>
@@ -17048,7 +17119,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="772" spans="1:5">
+    <row r="772" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A772" s="2" t="s">
         <v>735</v>
       </c>
@@ -17065,7 +17136,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="773" spans="1:5">
+    <row r="773" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A773" s="2" t="s">
         <v>736</v>
       </c>
@@ -17079,7 +17150,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="774" spans="1:5">
+    <row r="774" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A774" s="2" t="s">
         <v>737</v>
       </c>
@@ -17096,7 +17167,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="775" spans="1:5">
+    <row r="775" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A775" s="2" t="s">
         <v>738</v>
       </c>
@@ -17113,7 +17184,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="776" spans="1:5">
+    <row r="776" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A776" s="2" t="s">
         <v>739</v>
       </c>
@@ -17127,7 +17198,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="777" spans="1:5">
+    <row r="777" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A777" s="2" t="s">
         <v>740</v>
       </c>
@@ -17144,7 +17215,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="778" spans="1:5">
+    <row r="778" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A778" s="2" t="s">
         <v>741</v>
       </c>
@@ -17158,7 +17229,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="779" spans="1:5">
+    <row r="779" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A779" s="2" t="s">
         <v>742</v>
       </c>
@@ -17172,7 +17243,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="780" spans="1:5">
+    <row r="780" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A780" s="2" t="s">
         <v>743</v>
       </c>
@@ -17186,7 +17257,7 @@
         <v>1437</v>
       </c>
     </row>
-    <row r="781" spans="1:5">
+    <row r="781" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A781" s="2" t="s">
         <v>744</v>
       </c>
@@ -17200,7 +17271,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="782" spans="1:5">
+    <row r="782" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A782" s="2" t="s">
         <v>748</v>
       </c>
@@ -17217,7 +17288,7 @@
         <v>1440</v>
       </c>
     </row>
-    <row r="783" spans="1:5">
+    <row r="783" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A783" s="2" t="s">
         <v>749</v>
       </c>
@@ -17234,7 +17305,7 @@
         <v>1441</v>
       </c>
     </row>
-    <row r="784" spans="1:5">
+    <row r="784" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A784" s="2" t="s">
         <v>755</v>
       </c>
@@ -17251,7 +17322,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="785" spans="1:5">
+    <row r="785" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A785" s="2" t="s">
         <v>745</v>
       </c>
@@ -17265,7 +17336,7 @@
         <v>992</v>
       </c>
     </row>
-    <row r="786" spans="1:5">
+    <row r="786" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A786" s="2" t="s">
         <v>746</v>
       </c>
@@ -17277,7 +17348,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="787" spans="1:5">
+    <row r="787" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A787" s="2" t="s">
         <v>753</v>
       </c>
@@ -17289,7 +17360,7 @@
         <v>1443</v>
       </c>
     </row>
-    <row r="788" spans="1:5">
+    <row r="788" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A788" s="2" t="s">
         <v>754</v>
       </c>
@@ -17301,7 +17372,7 @@
         <v>1444</v>
       </c>
     </row>
-    <row r="789" spans="1:5">
+    <row r="789" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A789" s="2" t="s">
         <v>756</v>
       </c>
@@ -17313,7 +17384,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="790" spans="1:5">
+    <row r="790" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A790" s="2" t="s">
         <v>757</v>
       </c>
@@ -17330,7 +17401,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="791" spans="1:5">
+    <row r="791" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A791" s="2" t="s">
         <v>758</v>
       </c>
@@ -17339,7 +17410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="792" spans="1:5">
+    <row r="792" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A792" s="2" t="s">
         <v>759</v>
       </c>
@@ -17353,7 +17424,7 @@
         <v>1448</v>
       </c>
     </row>
-    <row r="793" spans="1:5">
+    <row r="793" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A793" s="2" t="s">
         <v>760</v>
       </c>
@@ -17367,7 +17438,7 @@
         <v>1449</v>
       </c>
     </row>
-    <row r="794" spans="1:5">
+    <row r="794" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A794" s="2" t="s">
         <v>761</v>
       </c>
@@ -17381,7 +17452,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="795" spans="1:5">
+    <row r="795" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A795" s="2" t="s">
         <v>762</v>
       </c>
@@ -17395,7 +17466,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="796" spans="1:5">
+    <row r="796" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A796" s="2" t="s">
         <v>763</v>
       </c>
@@ -17409,7 +17480,7 @@
         <v>1452</v>
       </c>
     </row>
-    <row r="797" spans="1:5">
+    <row r="797" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A797" s="2" t="s">
         <v>764</v>
       </c>
@@ -17423,7 +17494,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="798" spans="1:5">
+    <row r="798" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A798" s="2" t="s">
         <v>765</v>
       </c>
@@ -17437,7 +17508,7 @@
         <v>1454</v>
       </c>
     </row>
-    <row r="799" spans="1:5">
+    <row r="799" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A799" s="2" t="s">
         <v>766</v>
       </c>
@@ -17451,7 +17522,7 @@
         <v>1453</v>
       </c>
     </row>
-    <row r="800" spans="1:5">
+    <row r="800" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A800" s="2" t="s">
         <v>767</v>
       </c>
@@ -17465,7 +17536,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="801" spans="1:5">
+    <row r="801" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A801" s="2" t="s">
         <v>768</v>
       </c>
@@ -17482,7 +17553,7 @@
         <v>1455</v>
       </c>
     </row>
-    <row r="802" spans="1:5">
+    <row r="802" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A802" s="2" t="s">
         <v>769</v>
       </c>
@@ -17496,7 +17567,7 @@
         <v>1456</v>
       </c>
     </row>
-    <row r="803" spans="1:5">
+    <row r="803" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A803" s="2" t="s">
         <v>770</v>
       </c>
@@ -17510,7 +17581,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="804" spans="1:5">
+    <row r="804" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A804" s="2" t="s">
         <v>771</v>
       </c>
@@ -17524,7 +17595,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="805" spans="1:5">
+    <row r="805" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A805" s="2" t="s">
         <v>772</v>
       </c>
@@ -17538,7 +17609,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="806" spans="1:5">
+    <row r="806" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A806" s="2" t="s">
         <v>773</v>
       </c>
@@ -17552,7 +17623,7 @@
         <v>1459</v>
       </c>
     </row>
-    <row r="807" spans="1:5">
+    <row r="807" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A807" s="2" t="s">
         <v>774</v>
       </c>
@@ -17566,7 +17637,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="808" spans="1:5">
+    <row r="808" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A808" s="2" t="s">
         <v>775</v>
       </c>
@@ -17583,7 +17654,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="809" spans="1:5">
+    <row r="809" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A809" s="2" t="s">
         <v>776</v>
       </c>
@@ -17597,7 +17668,7 @@
         <v>1451</v>
       </c>
     </row>
-    <row r="810" spans="1:5">
+    <row r="810" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A810" s="2" t="s">
         <v>1602</v>
       </c>
@@ -17614,7 +17685,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="811" spans="1:5">
+    <row r="811" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A811" s="2" t="s">
         <v>777</v>
       </c>
@@ -17628,7 +17699,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="812" spans="1:5">
+    <row r="812" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A812" s="2" t="s">
         <v>1603</v>
       </c>
@@ -17642,7 +17713,7 @@
         <v>1463</v>
       </c>
     </row>
-    <row r="813" spans="1:5">
+    <row r="813" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A813" s="2" t="s">
         <v>778</v>
       </c>
@@ -17653,7 +17724,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="814" spans="1:5">
+    <row r="814" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A814" s="2" t="s">
         <v>1604</v>
       </c>
@@ -17667,7 +17738,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="815" spans="1:5">
+    <row r="815" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A815" s="2" t="s">
         <v>1606</v>
       </c>
@@ -17681,7 +17752,7 @@
         <v>1465</v>
       </c>
     </row>
-    <row r="816" spans="1:5">
+    <row r="816" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A816" s="2" t="s">
         <v>779</v>
       </c>
@@ -17698,7 +17769,7 @@
         <v>1466</v>
       </c>
     </row>
-    <row r="817" spans="1:5">
+    <row r="817" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A817" s="2" t="s">
         <v>780</v>
       </c>
@@ -17709,7 +17780,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="818" spans="1:5">
+    <row r="818" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A818" s="2" t="s">
         <v>781</v>
       </c>
@@ -17723,7 +17794,7 @@
         <v>959</v>
       </c>
     </row>
-    <row r="819" spans="1:5">
+    <row r="819" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A819" s="2" t="s">
         <v>782</v>
       </c>
@@ -17737,7 +17808,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="820" spans="1:5">
+    <row r="820" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A820" s="2" t="s">
         <v>783</v>
       </c>
@@ -17754,7 +17825,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="821" spans="1:5">
+    <row r="821" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A821" s="2" t="s">
         <v>784</v>
       </c>
@@ -17771,7 +17842,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="822" spans="1:5">
+    <row r="822" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A822" s="2" t="s">
         <v>785</v>
       </c>
@@ -17785,7 +17856,7 @@
         <v>1470</v>
       </c>
     </row>
-    <row r="823" spans="1:5">
+    <row r="823" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A823" s="2" t="s">
         <v>1552</v>
       </c>
@@ -17796,7 +17867,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="824" spans="1:5">
+    <row r="824" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A824" s="2" t="s">
         <v>786</v>
       </c>
@@ -17810,7 +17881,7 @@
         <v>1471</v>
       </c>
     </row>
-    <row r="825" spans="1:5">
+    <row r="825" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A825" s="2" t="s">
         <v>1608</v>
       </c>
@@ -17827,7 +17898,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="826" spans="1:5">
+    <row r="826" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A826" s="2" t="s">
         <v>787</v>
       </c>
@@ -17841,7 +17912,7 @@
         <v>1458</v>
       </c>
     </row>
-    <row r="827" spans="1:5">
+    <row r="827" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A827" s="2" t="s">
         <v>788</v>
       </c>
@@ -17855,7 +17926,7 @@
         <v>1538</v>
       </c>
     </row>
-    <row r="828" spans="1:5">
+    <row r="828" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A828" s="2" t="s">
         <v>789</v>
       </c>
@@ -17869,7 +17940,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="829" spans="1:5">
+    <row r="829" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A829" s="2" t="s">
         <v>790</v>
       </c>
@@ -17883,7 +17954,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="830" spans="1:5">
+    <row r="830" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A830" s="2" t="s">
         <v>791</v>
       </c>
@@ -17900,7 +17971,7 @@
         <v>1159</v>
       </c>
     </row>
-    <row r="831" spans="1:5">
+    <row r="831" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A831" s="2" t="s">
         <v>1642</v>
       </c>
@@ -17914,7 +17985,7 @@
         <v>1473</v>
       </c>
     </row>
-    <row r="832" spans="1:5">
+    <row r="832" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A832" s="2" t="s">
         <v>792</v>
       </c>
@@ -17928,7 +17999,7 @@
         <v>1474</v>
       </c>
     </row>
-    <row r="833" spans="1:5">
+    <row r="833" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A833" s="2" t="s">
         <v>793</v>
       </c>
@@ -17942,7 +18013,7 @@
         <v>984</v>
       </c>
     </row>
-    <row r="834" spans="1:5">
+    <row r="834" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A834" s="2" t="s">
         <v>794</v>
       </c>
@@ -17956,7 +18027,7 @@
         <v>1475</v>
       </c>
     </row>
-    <row r="835" spans="1:5">
+    <row r="835" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A835" s="2" t="s">
         <v>795</v>
       </c>
@@ -17970,7 +18041,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="836" spans="1:5">
+    <row r="836" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A836" s="2" t="s">
         <v>796</v>
       </c>
@@ -17984,7 +18055,7 @@
         <v>1476</v>
       </c>
     </row>
-    <row r="837" spans="1:5">
+    <row r="837" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A837" s="2" t="s">
         <v>1644</v>
       </c>
@@ -17998,7 +18069,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="838" spans="1:5">
+    <row r="838" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A838" s="2" t="s">
         <v>1643</v>
       </c>
@@ -18012,7 +18083,7 @@
         <v>1094</v>
       </c>
     </row>
-    <row r="839" spans="1:5">
+    <row r="839" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A839" s="2" t="s">
         <v>1640</v>
       </c>
@@ -18026,7 +18097,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="840" spans="1:5">
+    <row r="840" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A840" s="2" t="s">
         <v>797</v>
       </c>
@@ -18040,7 +18111,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="841" spans="1:5">
+    <row r="841" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A841" s="2" t="s">
         <v>798</v>
       </c>
@@ -18054,7 +18125,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="842" spans="1:5">
+    <row r="842" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A842" s="2" t="s">
         <v>799</v>
       </c>
@@ -18071,7 +18142,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="843" spans="1:5">
+    <row r="843" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A843" s="2" t="s">
         <v>800</v>
       </c>
@@ -18088,7 +18159,7 @@
         <v>1149</v>
       </c>
     </row>
-    <row r="844" spans="1:5">
+    <row r="844" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A844" s="2" t="s">
         <v>1646</v>
       </c>
@@ -18097,7 +18168,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="845" spans="1:5">
+    <row r="845" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A845" s="2" t="s">
         <v>801</v>
       </c>
@@ -18109,7 +18180,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="846" spans="1:5">
+    <row r="846" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A846" s="2" t="s">
         <v>802</v>
       </c>
@@ -18120,7 +18191,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="847" spans="1:5">
+    <row r="847" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A847" s="2" t="s">
         <v>1598</v>
       </c>
@@ -18131,7 +18202,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="848" spans="1:5">
+    <row r="848" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A848" s="2" t="s">
         <v>803</v>
       </c>
@@ -18142,7 +18213,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="849" spans="1:5">
+    <row r="849" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A849" s="2" t="s">
         <v>804</v>
       </c>
@@ -18153,7 +18224,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="850" spans="1:5">
+    <row r="850" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A850" s="2" t="s">
         <v>805</v>
       </c>
@@ -18167,7 +18238,7 @@
         <v>1479</v>
       </c>
     </row>
-    <row r="851" spans="1:5">
+    <row r="851" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A851" s="2" t="s">
         <v>806</v>
       </c>
@@ -18181,7 +18252,7 @@
         <v>1480</v>
       </c>
     </row>
-    <row r="852" spans="1:5">
+    <row r="852" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A852" s="2" t="s">
         <v>807</v>
       </c>
@@ -18198,7 +18269,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="853" spans="1:5">
+    <row r="853" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A853" s="2" t="s">
         <v>808</v>
       </c>
@@ -18212,7 +18283,7 @@
         <v>1482</v>
       </c>
     </row>
-    <row r="854" spans="1:5">
+    <row r="854" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A854" s="2" t="s">
         <v>809</v>
       </c>
@@ -18226,7 +18297,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="855" spans="1:5">
+    <row r="855" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A855" s="2" t="s">
         <v>810</v>
       </c>
@@ -18240,7 +18311,7 @@
         <v>1484</v>
       </c>
     </row>
-    <row r="856" spans="1:5">
+    <row r="856" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A856" s="2" t="s">
         <v>811</v>
       </c>
@@ -18254,7 +18325,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="857" spans="1:5">
+    <row r="857" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A857" s="2" t="s">
         <v>812</v>
       </c>
@@ -18268,7 +18339,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="858" spans="1:5">
+    <row r="858" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A858" s="2" t="s">
         <v>813</v>
       </c>
@@ -18282,7 +18353,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="859" spans="1:5">
+    <row r="859" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A859" s="2" t="s">
         <v>814</v>
       </c>
@@ -18299,7 +18370,7 @@
         <v>1095</v>
       </c>
     </row>
-    <row r="860" spans="1:5">
+    <row r="860" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A860" s="2" t="s">
         <v>815</v>
       </c>
@@ -18316,7 +18387,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="861" spans="1:5">
+    <row r="861" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A861" s="2" t="s">
         <v>1639</v>
       </c>
@@ -18328,7 +18399,7 @@
         <v>1086</v>
       </c>
     </row>
-    <row r="862" spans="1:5">
+    <row r="862" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A862" s="2" t="s">
         <v>817</v>
       </c>
@@ -18345,7 +18416,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="863" spans="1:5">
+    <row r="863" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A863" s="2" t="s">
         <v>818</v>
       </c>
@@ -18362,7 +18433,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="864" spans="1:5">
+    <row r="864" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A864" s="2" t="s">
         <v>819</v>
       </c>
@@ -18379,20 +18450,24 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="865" spans="1:5">
+    <row r="865" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A865" s="2" t="s">
         <v>816</v>
       </c>
-      <c r="B865" s="4"/>
+      <c r="B865" s="4" t="s">
+        <v>1655</v>
+      </c>
       <c r="C865" s="2">
         <v>102</v>
       </c>
     </row>
-    <row r="866" spans="1:5">
+    <row r="866" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A866" s="2" t="s">
         <v>820</v>
       </c>
-      <c r="B866" s="4"/>
+      <c r="B866" s="2" t="s">
+        <v>923</v>
+      </c>
       <c r="C866" s="2">
         <v>103</v>
       </c>
@@ -18403,7 +18478,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="867" spans="1:5">
+    <row r="867" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A867" s="2" t="s">
         <v>821</v>
       </c>
@@ -18420,7 +18495,7 @@
         <v>1491</v>
       </c>
     </row>
-    <row r="868" spans="1:5">
+    <row r="868" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A868" s="2" t="s">
         <v>822</v>
       </c>
@@ -18437,11 +18512,13 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="869" spans="1:5">
+    <row r="869" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A869" s="2" t="s">
         <v>1637</v>
       </c>
-      <c r="B869" s="4"/>
+      <c r="B869" s="2" t="s">
+        <v>946</v>
+      </c>
       <c r="C869" s="2">
         <v>103</v>
       </c>
@@ -18452,7 +18529,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="870" spans="1:5">
+    <row r="870" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A870" s="2" t="s">
         <v>823</v>
       </c>
@@ -18469,7 +18546,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="871" spans="1:5">
+    <row r="871" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A871" s="2" t="s">
         <v>824</v>
       </c>
@@ -18483,7 +18560,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="872" spans="1:5">
+    <row r="872" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A872" s="2" t="s">
         <v>825</v>
       </c>
@@ -18497,7 +18574,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="873" spans="1:5">
+    <row r="873" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A873" s="2" t="s">
         <v>826</v>
       </c>
@@ -18511,7 +18588,7 @@
         <v>1496</v>
       </c>
     </row>
-    <row r="874" spans="1:5">
+    <row r="874" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A874" s="2" t="s">
         <v>827</v>
       </c>
@@ -18525,7 +18602,7 @@
         <v>1497</v>
       </c>
     </row>
-    <row r="875" spans="1:5">
+    <row r="875" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A875" s="2" t="s">
         <v>828</v>
       </c>
@@ -18542,7 +18619,7 @@
         <v>1498</v>
       </c>
     </row>
-    <row r="876" spans="1:5">
+    <row r="876" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A876" s="2" t="s">
         <v>829</v>
       </c>
@@ -18559,7 +18636,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="877" spans="1:5">
+    <row r="877" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A877" s="2" t="s">
         <v>830</v>
       </c>
@@ -18573,7 +18650,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="878" spans="1:5">
+    <row r="878" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A878" s="2" t="s">
         <v>831</v>
       </c>
@@ -18590,7 +18667,7 @@
         <v>1501</v>
       </c>
     </row>
-    <row r="879" spans="1:5">
+    <row r="879" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A879" s="2" t="s">
         <v>834</v>
       </c>
@@ -18604,7 +18681,7 @@
         <v>1504</v>
       </c>
     </row>
-    <row r="880" spans="1:5">
+    <row r="880" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A880" s="2" t="s">
         <v>835</v>
       </c>
@@ -18621,7 +18698,7 @@
         <v>1505</v>
       </c>
     </row>
-    <row r="881" spans="1:5">
+    <row r="881" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A881" s="2" t="s">
         <v>836</v>
       </c>
@@ -18635,7 +18712,7 @@
         <v>1506</v>
       </c>
     </row>
-    <row r="882" spans="1:5">
+    <row r="882" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A882" s="2" t="s">
         <v>837</v>
       </c>
@@ -18652,7 +18729,7 @@
         <v>1507</v>
       </c>
     </row>
-    <row r="883" spans="1:5">
+    <row r="883" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A883" s="2" t="s">
         <v>838</v>
       </c>
@@ -18669,7 +18746,7 @@
         <v>1508</v>
       </c>
     </row>
-    <row r="884" spans="1:5">
+    <row r="884" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A884" s="2" t="s">
         <v>839</v>
       </c>
@@ -18683,7 +18760,7 @@
         <v>1509</v>
       </c>
     </row>
-    <row r="885" spans="1:5">
+    <row r="885" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A885" s="2" t="s">
         <v>832</v>
       </c>
@@ -18697,7 +18774,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="886" spans="1:5">
+    <row r="886" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A886" s="2" t="s">
         <v>833</v>
       </c>
@@ -18711,7 +18788,7 @@
         <v>1503</v>
       </c>
     </row>
-    <row r="887" spans="1:5">
+    <row r="887" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A887" s="2" t="s">
         <v>840</v>
       </c>
@@ -18728,7 +18805,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="888" spans="1:5">
+    <row r="888" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A888" s="2" t="s">
         <v>1583</v>
       </c>
@@ -18745,7 +18822,7 @@
         <v>1511</v>
       </c>
     </row>
-    <row r="889" spans="1:5">
+    <row r="889" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A889" s="2" t="s">
         <v>841</v>
       </c>
@@ -18759,7 +18836,7 @@
         <v>1512</v>
       </c>
     </row>
-    <row r="890" spans="1:5">
+    <row r="890" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A890" s="2" t="s">
         <v>842</v>
       </c>
@@ -18773,7 +18850,7 @@
         <v>1513</v>
       </c>
     </row>
-    <row r="891" spans="1:5">
+    <row r="891" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A891" s="2" t="s">
         <v>843</v>
       </c>
@@ -18787,7 +18864,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="892" spans="1:5">
+    <row r="892" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A892" s="2" t="s">
         <v>844</v>
       </c>
@@ -18801,7 +18878,7 @@
         <v>1230</v>
       </c>
     </row>
-    <row r="893" spans="1:5">
+    <row r="893" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A893" s="2" t="s">
         <v>845</v>
       </c>
@@ -18818,7 +18895,7 @@
         <v>1514</v>
       </c>
     </row>
-    <row r="894" spans="1:5">
+    <row r="894" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A894" s="2" t="s">
         <v>846</v>
       </c>
@@ -18835,7 +18912,7 @@
         <v>1515</v>
       </c>
     </row>
-    <row r="895" spans="1:5">
+    <row r="895" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A895" s="2" t="s">
         <v>847</v>
       </c>
@@ -18849,7 +18926,7 @@
         <v>1516</v>
       </c>
     </row>
-    <row r="896" spans="1:5">
+    <row r="896" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A896" s="2" t="s">
         <v>848</v>
       </c>
@@ -18863,7 +18940,7 @@
         <v>1517</v>
       </c>
     </row>
-    <row r="897" spans="1:5">
+    <row r="897" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A897" s="2" t="s">
         <v>1614</v>
       </c>
@@ -18880,7 +18957,7 @@
         <v>1518</v>
       </c>
     </row>
-    <row r="898" spans="1:5">
+    <row r="898" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A898" s="2" t="s">
         <v>849</v>
       </c>
@@ -18891,7 +18968,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="899" spans="1:5">
+    <row r="899" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A899" s="2" t="s">
         <v>850</v>
       </c>
@@ -18905,7 +18982,7 @@
         <v>1519</v>
       </c>
     </row>
-    <row r="900" spans="1:5">
+    <row r="900" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A900" s="2" t="s">
         <v>851</v>
       </c>
@@ -18919,7 +18996,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="901" spans="1:5">
+    <row r="901" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A901" s="2" t="s">
         <v>1628</v>
       </c>
@@ -18930,7 +19007,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="902" spans="1:5">
+    <row r="902" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A902" s="2" t="s">
         <v>852</v>
       </c>
@@ -18947,7 +19024,7 @@
         <v>1521</v>
       </c>
     </row>
-    <row r="903" spans="1:5">
+    <row r="903" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A903" s="2" t="s">
         <v>853</v>
       </c>
@@ -18961,7 +19038,7 @@
         <v>1522</v>
       </c>
     </row>
-    <row r="904" spans="1:5">
+    <row r="904" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A904" s="2" t="s">
         <v>854</v>
       </c>
@@ -18978,7 +19055,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="905" spans="1:5">
+    <row r="905" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A905" s="2" t="s">
         <v>855</v>
       </c>
@@ -19001,5 +19078,6 @@
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>